--- a/Glacial_succession_survey/Plant_survey_DATA.xlsx
+++ b/Glacial_succession_survey/Plant_survey_DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciaranorton/Desktop/Garibaldi_work/FieldData_PlantSurvey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciaranorton/Documents/GitHub/Garibaldi/Glacial_succession_survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1D69D4-1C83-8D4E-8A1A-D382783E75C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565EA698-9A17-2C42-AF25-CDB0DF1C26DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="8" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="#8" sheetId="8" r:id="rId8"/>
     <sheet name="#9" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="519">
   <si>
     <t>Date:</t>
   </si>
@@ -721,9 +721,6 @@
     <t>Pearly Everlasting</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -1349,6 +1346,261 @@
   </si>
   <si>
     <t>Pearly everlasting</t>
+  </si>
+  <si>
+    <t>Aug 2 ,2023</t>
+  </si>
+  <si>
+    <t>CE, CN</t>
+  </si>
+  <si>
+    <t>Col Hike</t>
+  </si>
+  <si>
+    <t>Sagina Sagina</t>
+  </si>
+  <si>
+    <t>Abies Anagallad</t>
+  </si>
+  <si>
+    <t>Lazula spp1</t>
+  </si>
+  <si>
+    <t>Festuca spp1</t>
+  </si>
+  <si>
+    <t>4, 1, 2, 4</t>
+  </si>
+  <si>
+    <t>3, 2, 1, 0</t>
+  </si>
+  <si>
+    <t>Physaria/lesquerella</t>
+  </si>
+  <si>
+    <t>senecio fremontii</t>
+  </si>
+  <si>
+    <t>ana mar</t>
+  </si>
+  <si>
+    <t>salix artica</t>
+  </si>
+  <si>
+    <t>silene acaulis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1, 0, 0 </t>
+  </si>
+  <si>
+    <t>1, 3, 0, 0</t>
+  </si>
+  <si>
+    <t>kalmia</t>
+  </si>
+  <si>
+    <t>microphyla</t>
+  </si>
+  <si>
+    <t>Aster</t>
+  </si>
+  <si>
+    <t>fol</t>
+  </si>
+  <si>
+    <t>crust</t>
+  </si>
+  <si>
+    <t>petsites</t>
+  </si>
+  <si>
+    <t>frigidus</t>
+  </si>
+  <si>
+    <t>4, 3, 3, 3</t>
+  </si>
+  <si>
+    <t>4, 0, 0, 4</t>
+  </si>
+  <si>
+    <t>0, 1, 3, 0</t>
+  </si>
+  <si>
+    <t>WP20</t>
+  </si>
+  <si>
+    <t>4, 4, 3, 2</t>
+  </si>
+  <si>
+    <t>3, 0, 0, 0</t>
+  </si>
+  <si>
+    <t>4, 2, 1</t>
+  </si>
+  <si>
+    <t>3, 4, 4, 2</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>0, 2, 0, 0</t>
+  </si>
+  <si>
+    <t>4, 3, 3, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luzula </t>
+  </si>
+  <si>
+    <t>piperii</t>
+  </si>
+  <si>
+    <t>juncus 1</t>
+  </si>
+  <si>
+    <t>flower size d</t>
+  </si>
+  <si>
+    <t>juncus 2</t>
+  </si>
+  <si>
+    <t>flower top drumondii</t>
+  </si>
+  <si>
+    <t>Elymus</t>
+  </si>
+  <si>
+    <t>truchycalaus</t>
+  </si>
+  <si>
+    <t>breweri</t>
+  </si>
+  <si>
+    <t>poa</t>
+  </si>
+  <si>
+    <t>glauca</t>
+  </si>
+  <si>
+    <t>mimulus</t>
+  </si>
+  <si>
+    <t>talingi</t>
+  </si>
+  <si>
+    <t>minuantia</t>
+  </si>
+  <si>
+    <t>0, 1, 1, 0</t>
+  </si>
+  <si>
+    <t>0, 0, 1, 1</t>
+  </si>
+  <si>
+    <t>3, 5, 2, 0</t>
+  </si>
+  <si>
+    <t>lenisii</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Hieracium</t>
+  </si>
+  <si>
+    <t>vaccinium</t>
+  </si>
+  <si>
+    <t>spp</t>
+  </si>
+  <si>
+    <t>WP4</t>
+  </si>
+  <si>
+    <t>WP69</t>
+  </si>
+  <si>
+    <t>WP73</t>
+  </si>
+  <si>
+    <t>WP40</t>
+  </si>
+  <si>
+    <t>2, 1, 3, 4</t>
+  </si>
+  <si>
+    <t>0, 2, 2, 0</t>
+  </si>
+  <si>
+    <t>4, 2, 2, 4</t>
+  </si>
+  <si>
+    <t>4, 0, 4, 0</t>
+  </si>
+  <si>
+    <t>1 ,0, 0, 0</t>
+  </si>
+  <si>
+    <t>3, 2, 4, 1</t>
+  </si>
+  <si>
+    <t>2, 4, 2, 3</t>
+  </si>
+  <si>
+    <t>3, 4, 4, 4</t>
+  </si>
+  <si>
+    <t>18m</t>
+  </si>
+  <si>
+    <t>3, 1, 4, 4</t>
+  </si>
+  <si>
+    <t>3, 2, 0, 1</t>
+  </si>
+  <si>
+    <t>0, 0, 2, 1</t>
+  </si>
+  <si>
+    <t>deliciosum</t>
+  </si>
+  <si>
+    <t>0, 2, 1, 2</t>
+  </si>
+  <si>
+    <t>1, 0, 3, 3</t>
+  </si>
+  <si>
+    <t>4, 2, 1, 1</t>
+  </si>
+  <si>
+    <t>3, 4, 3, 4</t>
+  </si>
+  <si>
+    <t>1, 2, 1, 0</t>
+  </si>
+  <si>
+    <t>carex wet</t>
+  </si>
+  <si>
+    <t>carex aureg</t>
+  </si>
+  <si>
+    <t>triglumus</t>
+  </si>
+  <si>
+    <t>mevtensianus</t>
+  </si>
+  <si>
+    <t>WP69-1</t>
+  </si>
+  <si>
+    <t>4, 3, 2, 2</t>
+  </si>
+  <si>
+    <t>3, 1 3, 0</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1956,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3404,7 +3656,7 @@
       <c r="C68" s="51"/>
       <c r="D68" s="51"/>
       <c r="E68" s="52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51" t="s">
@@ -3417,7 +3669,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -3436,7 +3688,7 @@
       <c r="C70" s="16"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16" t="s">
@@ -3449,7 +3701,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
@@ -3465,10 +3717,10 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>430</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>431</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16" t="s">
@@ -3481,12 +3733,12 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D73" s="19"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="20"/>
@@ -3671,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -3716,7 +3968,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="45"/>
@@ -3731,7 +3983,7 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="45"/>
@@ -3780,16 +4032,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>249</v>
-      </c>
       <c r="I9" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4067,7 +4319,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -4132,7 +4384,7 @@
         <v>68</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -4155,7 +4407,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -4199,7 +4451,7 @@
         <v>76</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4266,7 +4518,7 @@
         <v>84</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -4373,7 +4625,7 @@
         <v>102</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -4608,7 +4860,7 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -4652,7 +4904,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -4696,7 +4948,7 @@
         <v>148</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -4763,7 +5015,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -4895,7 +5147,7 @@
         <v>181</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -4944,7 +5196,7 @@
       <c r="D63" s="56"/>
       <c r="E63" s="55"/>
       <c r="F63" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G63" s="55"/>
       <c r="H63" s="55"/>
@@ -4954,12 +5206,12 @@
       <c r="A64" s="51"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D64" s="52"/>
       <c r="E64" s="52"/>
       <c r="F64" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
@@ -4969,7 +5221,7 @@
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D65" s="56"/>
       <c r="E65" s="56"/>
@@ -4984,12 +5236,12 @@
       <c r="A66" s="51"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D66" s="52"/>
       <c r="E66" s="52"/>
       <c r="F66" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G66" s="51"/>
       <c r="H66" s="51"/>
@@ -4999,12 +5251,12 @@
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
       <c r="F67" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G67" s="55"/>
       <c r="H67" s="55"/>
@@ -5014,7 +5266,7 @@
       <c r="A68" s="51"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="52"/>
@@ -5029,12 +5281,12 @@
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
       <c r="F69" s="55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G69" s="55"/>
       <c r="H69" s="55"/>
@@ -5044,12 +5296,12 @@
       <c r="A70" s="51"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="52"/>
       <c r="F70" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
@@ -5059,7 +5311,7 @@
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
@@ -5074,7 +5326,7 @@
       <c r="A72" s="51"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D72" s="52"/>
       <c r="E72" s="52"/>
@@ -5089,7 +5341,7 @@
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
@@ -5104,7 +5356,7 @@
       <c r="A74" s="51"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D74" s="52"/>
       <c r="E74" s="52"/>
@@ -5124,7 +5376,7 @@
       <c r="D75" s="56"/>
       <c r="E75" s="56"/>
       <c r="F75" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G75" s="55"/>
       <c r="H75" s="55"/>
@@ -5134,12 +5386,12 @@
       <c r="A76" s="51"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D76" s="52"/>
       <c r="E76" s="52"/>
       <c r="F76" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
@@ -5149,12 +5401,12 @@
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D77" s="56"/>
       <c r="E77" s="56"/>
       <c r="F77" s="55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G77" s="55"/>
       <c r="H77" s="55"/>
@@ -5164,7 +5416,7 @@
       <c r="A78" s="51"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D78" s="52"/>
       <c r="E78" s="52"/>
@@ -5179,7 +5431,7 @@
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D79" s="56"/>
       <c r="E79" s="56"/>
@@ -5194,12 +5446,12 @@
       <c r="A80" s="51"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D80" s="52"/>
       <c r="E80" s="52"/>
       <c r="F80" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
@@ -5209,12 +5461,12 @@
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D81" s="56"/>
       <c r="E81" s="56"/>
       <c r="F81" s="55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G81" s="55"/>
       <c r="H81" s="55"/>
@@ -5224,7 +5476,7 @@
       <c r="A82" s="51"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D82" s="52"/>
       <c r="E82" s="52"/>
@@ -5294,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -5338,10 +5590,10 @@
       <c r="D5" s="35"/>
       <c r="E5" s="46"/>
       <c r="F5" s="46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="36"/>
@@ -5355,10 +5607,10 @@
       <c r="D6" s="35"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="36"/>
@@ -5406,13 +5658,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>271</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>14</v>
@@ -5441,7 +5693,7 @@
         <v>215</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I10" s="18"/>
     </row>
@@ -5505,7 +5757,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="20"/>
@@ -5527,11 +5779,11 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I14" s="18"/>
     </row>
@@ -5594,13 +5846,13 @@
         <v>42</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>278</v>
-      </c>
       <c r="H17" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I17" s="26"/>
     </row>
@@ -5684,10 +5936,10 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>220</v>
@@ -5712,7 +5964,7 @@
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>220</v>
@@ -5799,13 +6051,13 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I26" s="20"/>
     </row>
@@ -5848,7 +6100,7 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>215</v>
@@ -5873,7 +6125,7 @@
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="18"/>
@@ -5895,13 +6147,13 @@
         <v>82</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I30" s="20"/>
     </row>
@@ -5985,10 +6237,10 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
@@ -6052,10 +6304,10 @@
         <v>104</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="18"/>
@@ -6099,7 +6351,7 @@
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="18"/>
@@ -6166,7 +6418,7 @@
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H42" s="31"/>
       <c r="I42" s="33"/>
@@ -6214,7 +6466,7 @@
         <v>202</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="18"/>
@@ -6259,7 +6511,7 @@
         <v>133</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -6282,10 +6534,10 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>220</v>
@@ -6331,7 +6583,7 @@
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>196</v>
@@ -6356,7 +6608,7 @@
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18"/>
@@ -6378,7 +6630,7 @@
         <v>148</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>214</v>
@@ -6405,7 +6657,7 @@
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I52" s="18"/>
     </row>
@@ -6451,7 +6703,7 @@
         <v>214</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I54" s="18"/>
     </row>
@@ -6514,7 +6766,7 @@
         <v>170</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -6564,7 +6816,7 @@
         <v>220</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I59" s="20"/>
     </row>
@@ -6602,10 +6854,10 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="20"/>
@@ -6625,7 +6877,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I62" s="18"/>
     </row>
@@ -6636,7 +6888,7 @@
         <v>93</v>
       </c>
       <c r="D63" s="56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E63" s="56"/>
       <c r="F63" s="55" t="s">
@@ -6655,13 +6907,13 @@
       <c r="D64" s="52"/>
       <c r="E64" s="52"/>
       <c r="F64" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G64" s="51" t="s">
         <v>220</v>
       </c>
       <c r="H64" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I64" s="53"/>
     </row>
@@ -6670,16 +6922,16 @@
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
       <c r="D65" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="E65" s="56" t="s">
         <v>291</v>
-      </c>
-      <c r="E65" s="56" t="s">
-        <v>292</v>
       </c>
       <c r="F65" s="55" t="s">
         <v>220</v>
       </c>
       <c r="G65" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H65" s="55"/>
       <c r="I65" s="57"/>
@@ -6688,12 +6940,12 @@
       <c r="A66" s="51"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D66" s="52"/>
       <c r="E66" s="52"/>
       <c r="F66" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G66" s="51"/>
       <c r="H66" s="51"/>
@@ -6704,11 +6956,11 @@
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
       <c r="D67" s="56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E67" s="56"/>
       <c r="F67" s="55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G67" s="55"/>
       <c r="H67" s="55"/>
@@ -6719,10 +6971,10 @@
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E68" s="52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F68" s="51" t="s">
         <v>216</v>
@@ -6736,10 +6988,10 @@
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
       <c r="D69" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E69" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F69" s="55" t="s">
         <v>216</v>
@@ -6752,13 +7004,13 @@
       <c r="A70" s="51"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="52"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H70" s="51"/>
       <c r="I70" s="53"/>
@@ -6767,13 +7019,13 @@
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
       <c r="F71" s="55"/>
       <c r="G71" s="55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H71" s="55"/>
       <c r="I71" s="57"/>
@@ -6782,7 +7034,7 @@
       <c r="A72" s="51"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D72" s="52"/>
       <c r="E72" s="52"/>
@@ -6797,13 +7049,13 @@
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
       <c r="F73" s="55"/>
       <c r="G73" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H73" s="55"/>
       <c r="I73" s="57"/>
@@ -6812,7 +7064,7 @@
       <c r="A74" s="51"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D74" s="52"/>
       <c r="E74" s="52"/>
@@ -6825,13 +7077,13 @@
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D75" s="56"/>
       <c r="E75" s="56"/>
       <c r="F75" s="55"/>
       <c r="G75" s="55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H75" s="55"/>
       <c r="I75" s="57"/>
@@ -6840,7 +7092,7 @@
       <c r="A76" s="51"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D76" s="52"/>
       <c r="E76" s="52"/>
@@ -6968,8 +7220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9556CD9F-1F63-6649-A68F-DC99994990E7}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7026,7 +7278,7 @@
       <c r="D4" s="35"/>
       <c r="E4" s="43"/>
       <c r="F4" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
@@ -7041,7 +7293,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="45">
@@ -7060,7 +7312,7 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="45">
@@ -7111,16 +7363,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>312</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -7143,7 +7395,7 @@
         <v>220</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
@@ -7228,10 +7480,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>196</v>
@@ -7381,16 +7633,16 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>220</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -7430,8 +7682,8 @@
       <c r="E23" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="58" t="s">
-        <v>315</v>
+      <c r="F23" s="31" t="s">
+        <v>314</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7496,16 +7748,16 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I26" s="20" t="s">
         <v>316</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -7569,10 +7821,10 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -7596,10 +7848,10 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -7619,7 +7871,7 @@
         <v>84</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>220</v>
@@ -7689,7 +7941,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -7710,10 +7962,10 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I35" s="18"/>
     </row>
@@ -7736,7 +7988,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I36" s="20"/>
     </row>
@@ -7821,7 +8073,7 @@
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="20"/>
@@ -7885,7 +8137,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>220</v>
@@ -7931,7 +8183,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -7955,7 +8207,7 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="18"/>
@@ -7977,10 +8229,10 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
@@ -8003,7 +8255,7 @@
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="18"/>
@@ -8025,7 +8277,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>196</v>
@@ -8093,7 +8345,7 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -8139,7 +8391,7 @@
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="18"/>
@@ -8204,7 +8456,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="20"/>
@@ -8251,7 +8503,7 @@
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I59" s="20"/>
     </row>
@@ -8274,10 +8526,10 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -8310,41 +8562,41 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="H62" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="H62" s="16" t="s">
-        <v>329</v>
-      </c>
       <c r="I62" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>330</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>331</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>220</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -8355,13 +8607,13 @@
         <v>52</v>
       </c>
       <c r="E64" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="G64" s="16" t="s">
         <v>335</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>336</v>
       </c>
       <c r="H64" s="16" t="s">
         <v>220</v>
@@ -8376,13 +8628,13 @@
         <v>93</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F65" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>220</v>
@@ -8397,16 +8649,16 @@
         <v>136</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G66" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="H66" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>342</v>
       </c>
       <c r="I66" s="18" t="s">
         <v>220</v>
@@ -8417,13 +8669,13 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="F67" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -8440,7 +8692,7 @@
         <v>49</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -8451,7 +8703,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>49</v>
@@ -8460,7 +8712,7 @@
         <v>220</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -8472,15 +8724,15 @@
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E70" s="17" t="s">
         <v>348</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>349</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I70" s="18"/>
     </row>
@@ -8489,15 +8741,15 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>350</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>351</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I71" s="20"/>
     </row>
@@ -8506,13 +8758,13 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I72" s="18"/>
     </row>
@@ -8524,12 +8776,12 @@
         <v>93</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I73" s="20"/>
     </row>
@@ -8541,12 +8793,12 @@
         <v>93</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I74" s="18"/>
     </row>
@@ -8555,13 +8807,13 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I75" s="20"/>
     </row>
@@ -8570,13 +8822,13 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I76" s="18"/>
     </row>
@@ -8585,10 +8837,10 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -8602,15 +8854,15 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>363</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>364</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I78" s="18"/>
     </row>
@@ -8619,13 +8871,13 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I79" s="20"/>
     </row>
@@ -8634,15 +8886,15 @@
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>366</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>367</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I80" s="18"/>
     </row>
@@ -8657,10 +8909,10 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -8755,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -8860,10 +9112,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>13</v>
@@ -9120,7 +9372,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -9395,7 +9647,7 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
@@ -9418,7 +9670,7 @@
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -9441,7 +9693,7 @@
         <v>102</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -9527,7 +9779,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -9592,7 +9844,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -9722,7 +9974,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -9745,7 +9997,7 @@
         <v>145</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -9833,7 +10085,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -9898,7 +10150,7 @@
         <v>170</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -9942,7 +10194,7 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -10001,7 +10253,7 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -10011,12 +10263,12 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -10025,15 +10277,15 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -10043,12 +10295,12 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -10059,11 +10311,11 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -10074,11 +10326,11 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -10088,12 +10340,12 @@
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -10103,12 +10355,12 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -10123,7 +10375,7 @@
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
@@ -10133,12 +10385,12 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -10148,7 +10400,7 @@
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
@@ -10163,12 +10415,12 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -10178,12 +10430,12 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
@@ -10193,12 +10445,12 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -10208,12 +10460,12 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
@@ -10223,12 +10475,12 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -10238,12 +10490,12 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -10253,12 +10505,12 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -10354,7 +10606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA4E2AA-6E94-0F42-A681-FAFB2C830D6A}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="162" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="162" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
@@ -10414,7 +10666,7 @@
       <c r="D4" s="35"/>
       <c r="E4" s="43"/>
       <c r="F4" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
@@ -10489,10 +10741,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>13</v>
@@ -10749,7 +11001,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -10856,7 +11108,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -10921,7 +11173,7 @@
         <v>79</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -10944,7 +11196,7 @@
         <v>82</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -11139,7 +11391,7 @@
         <v>109</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -11309,7 +11561,7 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -11584,7 +11836,7 @@
         <v>181</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -11620,7 +11872,7 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -11652,7 +11904,7 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -11901,10 +12153,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A4281A-6B16-8441-9BC2-3CF8DB851905}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11917,7 +12169,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="34" t="s">
+        <v>434</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -11930,7 +12184,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -11943,7 +12199,9 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="37"/>
@@ -11962,7 +12220,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="44"/>
       <c r="G4" s="49" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H4" s="45"/>
       <c r="I4" s="36"/>
@@ -11976,7 +12234,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G5" s="46">
         <v>91375</v>
@@ -11993,7 +12251,7 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G6" s="46">
         <v>97666</v>
@@ -12011,7 +12269,7 @@
       <c r="E7" s="43"/>
       <c r="F7" s="44"/>
       <c r="G7" s="49" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="36"/>
@@ -12046,10 +12304,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>13</v>
@@ -12075,7 +12333,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="16"/>
@@ -12161,7 +12419,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -12961,7 +13219,9 @@
         <v>152</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="16" t="s">
+        <v>442</v>
+      </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
     </row>
@@ -13163,329 +13423,526 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
+      <c r="G62" s="16" t="s">
+        <v>441</v>
+      </c>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5" t="s">
+    <row r="63" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="55" t="s">
         <v>413</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="5" t="s">
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="57"/>
+    </row>
+    <row r="64" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="20"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16" t="s">
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G64" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="H64" s="51"/>
+      <c r="I64" s="53"/>
+    </row>
+    <row r="65" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55" t="s">
         <v>415</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="16" t="s">
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="57"/>
+    </row>
+    <row r="66" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="53"/>
+    </row>
+    <row r="67" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="57"/>
+    </row>
+    <row r="68" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="53"/>
+    </row>
+    <row r="69" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="57"/>
+    </row>
+    <row r="70" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="53"/>
+    </row>
+    <row r="71" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="57"/>
+    </row>
+    <row r="72" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="G72" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="H72" s="51"/>
+      <c r="I72" s="53"/>
+    </row>
+    <row r="73" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="18"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="20"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="18"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="20"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="18"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="20"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="18"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="20"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="H72" s="16"/>
-      <c r="I72" s="18"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="H73" s="55"/>
+      <c r="I73" s="57"/>
+    </row>
+    <row r="74" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51" t="s">
         <v>427</v>
       </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H73" s="5"/>
-      <c r="I73" s="20"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16" t="s">
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="H74" s="51"/>
+      <c r="I74" s="53"/>
+    </row>
+    <row r="75" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="H74" s="16"/>
-      <c r="I74" s="18"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="20"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="H75" s="55"/>
+      <c r="I75" s="57"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="C76" s="16" t="s">
+        <v>437</v>
+      </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
+      <c r="G76" s="16" t="s">
+        <v>275</v>
+      </c>
       <c r="H76" s="16"/>
       <c r="I76" s="18"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>438</v>
+      </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="G77" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="H77" s="5"/>
       <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="C78" s="16" t="s">
+        <v>439</v>
+      </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+      <c r="G78" s="16" t="s">
+        <v>425</v>
+      </c>
       <c r="H78" s="16"/>
       <c r="I78" s="18"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="C79" s="5" t="s">
+        <v>440</v>
+      </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="H79" s="5"/>
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="C80" s="16" t="s">
+        <v>443</v>
+      </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
+      <c r="G80" s="16" t="s">
+        <v>448</v>
+      </c>
       <c r="H80" s="16"/>
       <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
+      <c r="G81" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="H81" s="5"/>
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
+      <c r="C82" s="16" t="s">
+        <v>445</v>
+      </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
+      <c r="G82" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="H82" s="16"/>
       <c r="I82" s="18"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="C83" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="H83" s="5"/>
       <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="C84" s="16" t="s">
+        <v>447</v>
+      </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>214</v>
+      </c>
       <c r="H84" s="16"/>
       <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="19"/>
+      <c r="C85" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="E85" s="19"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="G85" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
+      <c r="C86" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>451</v>
+      </c>
       <c r="E86" s="17"/>
       <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
+      <c r="G86" s="16" t="s">
+        <v>458</v>
+      </c>
       <c r="H86" s="16"/>
       <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E87" s="19"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H88" s="16"/>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E90" s="17"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H90" s="16"/>
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E91" s="19"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H91" s="5"/>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="20"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13494,10 +13951,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F54CE3-714C-B447-B957-952EACFF6DAA}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13510,7 +13967,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="34">
+        <v>45140</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -13566,8 +14025,12 @@
       <c r="C5" s="8"/>
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="46">
+        <v>49.903691999999999</v>
+      </c>
+      <c r="G5" s="46">
+        <v>49.904356999999997</v>
+      </c>
       <c r="H5" s="45"/>
       <c r="I5" s="36"/>
     </row>
@@ -13579,8 +14042,12 @@
       <c r="C6" s="8"/>
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="F6" s="46">
+        <v>122.999127</v>
+      </c>
+      <c r="G6" s="46">
+        <v>123.000865</v>
+      </c>
       <c r="H6" s="45"/>
       <c r="I6" s="36"/>
     </row>
@@ -13627,10 +14094,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>225</v>
+        <v>460</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>226</v>
+        <v>465</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>13</v>
@@ -13656,7 +14123,9 @@
         <v>19</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>215</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
     </row>
@@ -13740,7 +14209,9 @@
         <v>31</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>199</v>
+      </c>
       <c r="H14" s="16"/>
       <c r="I14" s="18"/>
     </row>
@@ -13866,7 +14337,9 @@
         <v>53</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="H20" s="16"/>
       <c r="I20" s="18"/>
     </row>
@@ -13886,8 +14359,12 @@
       <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20"/>
     </row>
@@ -13992,7 +14469,9 @@
         <v>19</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
     </row>
@@ -14076,7 +14555,9 @@
         <v>82</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="20"/>
     </row>
@@ -14097,7 +14578,9 @@
         <v>84</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="16" t="s">
+        <v>467</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
     </row>
@@ -14159,8 +14642,12 @@
       <c r="E34" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="F34" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>208</v>
+      </c>
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
     </row>
@@ -14201,7 +14688,9 @@
       <c r="E36" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="20"/>
@@ -14222,7 +14711,9 @@
       <c r="E37" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="18"/>
@@ -14264,7 +14755,9 @@
       <c r="E39" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="16"/>
+      <c r="F39" s="16" t="s">
+        <v>463</v>
+      </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="18"/>
@@ -14432,8 +14925,12 @@
       <c r="E47" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
     </row>
@@ -14454,7 +14951,9 @@
         <v>140</v>
       </c>
       <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="H48" s="16"/>
       <c r="I48" s="18"/>
     </row>
@@ -14579,7 +15078,9 @@
       <c r="E54" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>464</v>
+      </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="18"/>
@@ -14643,7 +15144,9 @@
         <v>170</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="G57" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="20"/>
     </row>
@@ -14684,7 +15187,9 @@
       <c r="E59" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
@@ -14723,7 +15228,9 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="G61" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="H61" s="5"/>
       <c r="I61" s="20"/>
     </row>
@@ -14739,274 +15246,355 @@
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
+      <c r="F62" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>279</v>
+      </c>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="20"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="18"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="18"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="20"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="18"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="18"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="20"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="18"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="20"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="18"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="20"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="20"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="18"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="18"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="20"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="20"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="18"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="20"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="20"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="18"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="18"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="20"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="20"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="18"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="18"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="20"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="18"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="20"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="18"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="20"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="18"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="20"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="18"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15017,8 +15605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54C3E0A-1824-6D47-BB35-9A9423D740F9}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15148,16 +15736,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>225</v>
+        <v>490</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>226</v>
+        <v>491</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>13</v>
+        <v>492</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>14</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -15177,9 +15765,15 @@
         <v>19</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -15241,7 +15835,9 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -15261,9 +15857,15 @@
         <v>31</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
+      <c r="G14" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -15304,7 +15906,9 @@
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="H16" s="21" t="s">
+        <v>265</v>
+      </c>
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -15387,7 +15991,9 @@
         <v>53</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="H20" s="16"/>
       <c r="I20" s="18"/>
     </row>
@@ -15407,10 +16013,14 @@
       <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
@@ -15428,7 +16038,9 @@
       <c r="E22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="18"/>
@@ -15493,7 +16105,9 @@
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="H25" s="28" t="s">
+        <v>221</v>
+      </c>
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -15512,10 +16126,18 @@
       <c r="E26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
+      <c r="F26" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
@@ -15556,7 +16178,9 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -15596,10 +16220,18 @@
       <c r="E30" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="20"/>
+      <c r="F30" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
@@ -15639,30 +16271,36 @@
         <v>87</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="G32" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="58" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="18"/>
+      <c r="E33" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -15744,9 +16382,13 @@
         <v>104</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="16" t="s">
+        <v>507</v>
+      </c>
       <c r="H37" s="16"/>
-      <c r="I37" s="18"/>
+      <c r="I37" s="18" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
@@ -15785,7 +16427,9 @@
       <c r="E39" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="16"/>
+      <c r="F39" s="16" t="s">
+        <v>279</v>
+      </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="18"/>
@@ -15911,7 +16555,9 @@
       <c r="E45" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="20"/>
@@ -15934,8 +16580,12 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="18"/>
+      <c r="H46" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
@@ -15953,10 +16603,18 @@
       <c r="E47" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="20"/>
+      <c r="F47" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
@@ -15977,7 +16635,9 @@
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
-      <c r="I48" s="18"/>
+      <c r="I48" s="18" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
@@ -16017,7 +16677,9 @@
         <v>145</v>
       </c>
       <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>231</v>
+      </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18"/>
     </row>
@@ -16059,7 +16721,9 @@
         <v>152</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
     </row>
@@ -16100,9 +16764,15 @@
       <c r="E54" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>214</v>
+      </c>
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -16164,9 +16834,15 @@
         <v>170</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="20"/>
+      <c r="G57" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -16205,7 +16881,9 @@
       <c r="E59" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
@@ -16226,7 +16904,9 @@
       <c r="E60" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>353</v>
+      </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="18"/>
@@ -16260,7 +16940,9 @@
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="16"/>
+      <c r="F62" s="16" t="s">
+        <v>353</v>
+      </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
@@ -16268,10 +16950,14 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>512</v>
+      </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="20"/>
@@ -16279,10 +16965,14 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="C64" s="16" t="s">
+        <v>513</v>
+      </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="16"/>
+      <c r="F64" s="16" t="s">
+        <v>518</v>
+      </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="18"/>
@@ -16291,9 +16981,15 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="5"/>
+      <c r="D65" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="20"/>
@@ -16302,9 +16998,15 @@
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="16"/>
+      <c r="D66" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="18"/>
@@ -16313,10 +17015,16 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
+      <c r="D67" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>516</v>
+      </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="G67" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="H67" s="5"/>
       <c r="I67" s="20"/>
     </row>
@@ -16324,12 +17032,20 @@
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
+      <c r="D68" s="17" t="s">
+        <v>396</v>
+      </c>
       <c r="E68" s="17"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="18"/>
+      <c r="G68" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
@@ -16383,7 +17099,6 @@
       <c r="E73" s="19"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
       <c r="I73" s="20"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -16413,7 +17128,7 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>

--- a/Glacial_succession_survey/Plant_survey_DATA.xlsx
+++ b/Glacial_succession_survey/Plant_survey_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciaranorton/Documents/GitHub/Garibaldi/Glacial_succession_survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565EA698-9A17-2C42-AF25-CDB0DF1C26DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C0BDA-D590-AA48-A378-71846FC3FB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="8" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19140" windowHeight="16420" firstSheet="4" activeTab="9" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,11 @@
     <sheet name="#7" sheetId="7" r:id="rId7"/>
     <sheet name="#8" sheetId="8" r:id="rId8"/>
     <sheet name="#9" sheetId="9" r:id="rId9"/>
+    <sheet name="#10" sheetId="14" r:id="rId10"/>
+    <sheet name="#11" sheetId="10" r:id="rId11"/>
+    <sheet name="#12" sheetId="12" r:id="rId12"/>
+    <sheet name="#13" sheetId="13" r:id="rId13"/>
+    <sheet name="#14" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="596">
   <si>
     <t>Date:</t>
   </si>
@@ -1601,6 +1606,237 @@
   </si>
   <si>
     <t>3, 1 3, 0</t>
+  </si>
+  <si>
+    <t>WP43</t>
+  </si>
+  <si>
+    <t>WP60</t>
+  </si>
+  <si>
+    <t>39m</t>
+  </si>
+  <si>
+    <t>3, 2, 1, 4</t>
+  </si>
+  <si>
+    <t>3, 3, 3, 1</t>
+  </si>
+  <si>
+    <t>2, 0, 0, 2</t>
+  </si>
+  <si>
+    <t>2, 1, 0, 0</t>
+  </si>
+  <si>
+    <t>1, 2, 1, 4</t>
+  </si>
+  <si>
+    <t>Micranthes</t>
+  </si>
+  <si>
+    <t>nivalis</t>
+  </si>
+  <si>
+    <t>Polystichum</t>
+  </si>
+  <si>
+    <t>lonchitis</t>
+  </si>
+  <si>
+    <t>margaritacea</t>
+  </si>
+  <si>
+    <t>Festuca</t>
+  </si>
+  <si>
+    <t>spp1/bra</t>
+  </si>
+  <si>
+    <t>NH, PS, TM, MS, AK</t>
+  </si>
+  <si>
+    <t>49 54.982</t>
+  </si>
+  <si>
+    <t>49 55.370</t>
+  </si>
+  <si>
+    <t>122 58.887</t>
+  </si>
+  <si>
+    <t>122 58.56</t>
+  </si>
+  <si>
+    <t>0, 0, 3</t>
+  </si>
+  <si>
+    <t>0, 3, 0, 2</t>
+  </si>
+  <si>
+    <t>4, 0, 1, 3</t>
+  </si>
+  <si>
+    <t>0, 0, 2, 0</t>
+  </si>
+  <si>
+    <t>0, 4, 0, 0</t>
+  </si>
+  <si>
+    <t>3, 4, 0, 0</t>
+  </si>
+  <si>
+    <t>MS + JG</t>
+  </si>
+  <si>
+    <t>GRAVEL</t>
+  </si>
+  <si>
+    <t>49 89738</t>
+  </si>
+  <si>
+    <t>122 98978</t>
+  </si>
+  <si>
+    <t>WP31</t>
+  </si>
+  <si>
+    <t>0, 0, 2, 2</t>
+  </si>
+  <si>
+    <t>2, 4, 4, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1, 3, 3, </t>
+  </si>
+  <si>
+    <t>4, 0, 4, 4</t>
+  </si>
+  <si>
+    <t>0, 3, 2, 3</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 2</t>
+  </si>
+  <si>
+    <t>Orange mtn dandelion</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>Solidago</t>
+  </si>
+  <si>
+    <t>Multiradiata</t>
+  </si>
+  <si>
+    <t>Darryi</t>
+  </si>
+  <si>
+    <t>Diphasiastrum</t>
+  </si>
+  <si>
+    <t>Glacialis</t>
+  </si>
+  <si>
+    <t>Adiantum</t>
+  </si>
+  <si>
+    <t>Petasites</t>
+  </si>
+  <si>
+    <t>Atymyrium</t>
+  </si>
+  <si>
+    <t>alpestre</t>
+  </si>
+  <si>
+    <t>aurantiaca</t>
+  </si>
+  <si>
+    <t>aster</t>
+  </si>
+  <si>
+    <t>Sticky</t>
+  </si>
+  <si>
+    <t>Cryopteris</t>
+  </si>
+  <si>
+    <t>Epilobium</t>
+  </si>
+  <si>
+    <t>anagallidifolium</t>
+  </si>
+  <si>
+    <t>wormsrjoldii</t>
+  </si>
+  <si>
+    <t>fimbriata</t>
+  </si>
+  <si>
+    <t>Parnassia</t>
+  </si>
+  <si>
+    <t>60?</t>
+  </si>
+  <si>
+    <t>Narchantia</t>
+  </si>
+  <si>
+    <t>Liverwart</t>
+  </si>
+  <si>
+    <t>Minuartia</t>
+  </si>
+  <si>
+    <t>Atmynium</t>
+  </si>
+  <si>
+    <t>Alpestre</t>
+  </si>
+  <si>
+    <t>spp 60</t>
+  </si>
+  <si>
+    <t>Plantanthea</t>
+  </si>
+  <si>
+    <t>dilatata</t>
+  </si>
+  <si>
+    <t>sandwort</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>Valeriana</t>
+  </si>
+  <si>
+    <t>sithensis</t>
+  </si>
+  <si>
+    <t>Yellow mimulus</t>
+  </si>
+  <si>
+    <t>Pilosella</t>
+  </si>
+  <si>
+    <t>tristis</t>
+  </si>
+  <si>
+    <t>pervifolia</t>
+  </si>
+  <si>
+    <t>Cirsium</t>
+  </si>
+  <si>
+    <t>edule</t>
+  </si>
+  <si>
+    <t>3om</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +2117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1957,6 +2193,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2273,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA28B8B9-E408-8845-AE18-B043797AE094}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2421,9 +2658,7 @@
       <c r="G9" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="H9" s="14"/>
       <c r="I9" s="15" t="s">
         <v>14</v>
       </c>
@@ -3818,6 +4053,8226 @@
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B921BFF-3F98-334E-BC5C-7564E0EE4CED}">
+  <dimension ref="A1:I113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34">
+        <v>45139</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46" t="s">
+        <v>535</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>536</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="16"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="18"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="E90" s="59" t="s">
+        <v>584</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="20"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="E92" s="19"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="20"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="E93" s="17"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="18"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="20"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="E99" s="17"/>
+      <c r="F99" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="20"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="20"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="20"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="18"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="20"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="18"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="20"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="18"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="20"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="18"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="20"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AB9E82-BB6A-FA4A-B0CC-309E289AE3E9}">
+  <dimension ref="A1:I86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34">
+        <v>45140</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6895C5A-DE82-3942-B271-698B4D08AC34}">
+  <dimension ref="A1:I86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA0EDA2-BBE3-2A4C-8516-3DB525BC1B46}">
+  <dimension ref="A1:I86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8973E348-2E82-6E46-97E0-777F7215A388}">
+  <dimension ref="A1:I86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="143" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="47"/>
       <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -5518,7 +13973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9EB8F6-AA7C-DD4B-BCB1-84C4DF18DF79}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
@@ -7220,8 +15675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9556CD9F-1F63-6649-A68F-DC99994990E7}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15605,7 +24060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54C3E0A-1824-6D47-BB35-9A9423D740F9}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="H71" sqref="H71:H72"/>
     </sheetView>
   </sheetViews>

--- a/Glacial_succession_survey/Plant_survey_DATA.xlsx
+++ b/Glacial_succession_survey/Plant_survey_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciaranorton/Documents/GitHub/Garibaldi/Glacial_succession_survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C0BDA-D590-AA48-A378-71846FC3FB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00618CD9-86F9-E449-BBF7-8D439E2428EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19140" windowHeight="16420" firstSheet="4" activeTab="9" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="4" activeTab="11" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="660">
   <si>
     <t>Date:</t>
   </si>
@@ -1692,12 +1692,6 @@
     <t>GRAVEL</t>
   </si>
   <si>
-    <t>49 89738</t>
-  </si>
-  <si>
-    <t>122 98978</t>
-  </si>
-  <si>
     <t>WP31</t>
   </si>
   <si>
@@ -1722,9 +1716,6 @@
     <t>Orange mtn dandelion</t>
   </si>
   <si>
-    <t>ago</t>
-  </si>
-  <si>
     <t>Solidago</t>
   </si>
   <si>
@@ -1837,6 +1828,207 @@
   </si>
   <si>
     <t>3om</t>
+  </si>
+  <si>
+    <t>2, 0, 4, 4</t>
+  </si>
+  <si>
+    <t>2, 0, 0, 1</t>
+  </si>
+  <si>
+    <t>2, 3, 1, 2</t>
+  </si>
+  <si>
+    <t>1, 4, 3, 2</t>
+  </si>
+  <si>
+    <t>1, 3, 1, 3</t>
+  </si>
+  <si>
+    <t>0, 2, 4, 0</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 3</t>
+  </si>
+  <si>
+    <t>1, 1, 4, 2</t>
+  </si>
+  <si>
+    <t>wormskjoldii</t>
+  </si>
+  <si>
+    <t>Gramminoid</t>
+  </si>
+  <si>
+    <t>sp10</t>
+  </si>
+  <si>
+    <t>sp11</t>
+  </si>
+  <si>
+    <t>Edible thistle</t>
+  </si>
+  <si>
+    <t>Green spleenwort</t>
+  </si>
+  <si>
+    <t>Potentilla</t>
+  </si>
+  <si>
+    <t>glaucophyla</t>
+  </si>
+  <si>
+    <t>Fringed grass of parnasus</t>
+  </si>
+  <si>
+    <t>Ranunculus</t>
+  </si>
+  <si>
+    <t>eschscholtzii</t>
+  </si>
+  <si>
+    <t>Stelaria</t>
+  </si>
+  <si>
+    <t>32m</t>
+  </si>
+  <si>
+    <t>49° 89738</t>
+  </si>
+  <si>
+    <t>122° 98978</t>
+  </si>
+  <si>
+    <t>JG &amp; MS</t>
+  </si>
+  <si>
+    <t>49°91762</t>
+  </si>
+  <si>
+    <t>49°90371</t>
+  </si>
+  <si>
+    <t>122° 97991</t>
+  </si>
+  <si>
+    <t>122° 97969</t>
+  </si>
+  <si>
+    <t>CE05</t>
+  </si>
+  <si>
+    <t>CE02</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 3</t>
+  </si>
+  <si>
+    <t>26m</t>
+  </si>
+  <si>
+    <t>2, 2, 2, 1</t>
+  </si>
+  <si>
+    <t>2.5m</t>
+  </si>
+  <si>
+    <t>dwarf hawksweed</t>
+  </si>
+  <si>
+    <t>Lewis monkeyflower</t>
+  </si>
+  <si>
+    <t>leptocarpum</t>
+  </si>
+  <si>
+    <t>arabidopsis</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>veronica</t>
+  </si>
+  <si>
+    <t>Grammminoid</t>
+  </si>
+  <si>
+    <t>spp3</t>
+  </si>
+  <si>
+    <t>spp4</t>
+  </si>
+  <si>
+    <t>4, 4, 1, 4</t>
+  </si>
+  <si>
+    <t>1, 0, 1, 4</t>
+  </si>
+  <si>
+    <t>1, 1, 0, 2</t>
+  </si>
+  <si>
+    <t>1, 0, 1, 0</t>
+  </si>
+  <si>
+    <t>spp7</t>
+  </si>
+  <si>
+    <t>escholtii</t>
+  </si>
+  <si>
+    <t>Orange mountain dandelion</t>
+  </si>
+  <si>
+    <t>Alpine ladyfern</t>
+  </si>
+  <si>
+    <t>Alpine sorrel</t>
+  </si>
+  <si>
+    <t>Oxyria</t>
+  </si>
+  <si>
+    <t>Dyrinia</t>
+  </si>
+  <si>
+    <t>Moss cameron</t>
+  </si>
+  <si>
+    <t>Cottonwood</t>
+  </si>
+  <si>
+    <t>Coltsfoot</t>
+  </si>
+  <si>
+    <t>Smooth alumroot</t>
+  </si>
+  <si>
+    <t>Flowering plant 1</t>
+  </si>
+  <si>
+    <t>3.5m</t>
+  </si>
+  <si>
+    <t>Shrubby cinguefoil</t>
+  </si>
+  <si>
+    <t>spp 9</t>
+  </si>
+  <si>
+    <t>spp 8</t>
+  </si>
+  <si>
+    <t>2, 2, 1, 3</t>
+  </si>
+  <si>
+    <t>2, 3, 1, 0</t>
+  </si>
+  <si>
+    <t>0, 0, 1, 4</t>
+  </si>
+  <si>
+    <t>Rolmie's Saxifrage</t>
   </si>
 </sst>
 </file>
@@ -4130,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B921BFF-3F98-334E-BC5C-7564E0EE4CED}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView zoomScale="125" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5620,10 +5812,10 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F72" s="16" t="s">
         <v>214</v>
@@ -5640,7 +5832,7 @@
         <v>132</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>226</v>
@@ -5657,7 +5849,7 @@
         <v>290</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>226</v>
@@ -5671,7 +5863,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="19" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>489</v>
@@ -5688,7 +5880,7 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>49</v>
@@ -5705,7 +5897,7 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="19" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>456</v>
@@ -5722,10 +5914,10 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="19" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>214</v>
@@ -5742,7 +5934,7 @@
         <v>349</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>214</v>
@@ -5756,10 +5948,10 @@
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F80" s="16" t="s">
         <v>214</v>
@@ -5773,7 +5965,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>489</v>
@@ -5790,12 +5982,14 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="F82" s="16"/>
+        <v>569</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>593</v>
+      </c>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="18"/>
@@ -5805,12 +5999,14 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="19" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="F83" s="5"/>
+      <c r="F83" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="20"/>
@@ -5823,9 +6019,11 @@
         <v>349</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="F84" s="16"/>
+        <v>564</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>594</v>
+      </c>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="18"/>
@@ -5835,12 +6033,14 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="F85" s="5"/>
+        <v>565</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
@@ -5853,9 +6053,11 @@
         <v>381</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="F86" s="16"/>
+        <v>570</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>595</v>
+      </c>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="18"/>
@@ -5865,12 +6067,14 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="19" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="F87" s="5"/>
+        <v>571</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="20"/>
@@ -5885,7 +6089,9 @@
       <c r="E88" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="F88" s="16"/>
+      <c r="F88" s="16" t="s">
+        <v>597</v>
+      </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="18"/>
@@ -5898,9 +6104,11 @@
         <v>93</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="F89" s="16"/>
+        <v>573</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>543</v>
+      </c>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="18"/>
@@ -5910,12 +6118,14 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E90" s="59" t="s">
-        <v>584</v>
-      </c>
-      <c r="F90" s="5"/>
+        <v>581</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>598</v>
+      </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="20"/>
@@ -5925,12 +6135,14 @@
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="F91" s="16"/>
+        <v>556</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>282</v>
+      </c>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="18"/>
@@ -5939,13 +6151,15 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E92" s="19"/>
-      <c r="F92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="20"/>
@@ -5954,13 +6168,15 @@
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E93" s="17"/>
-      <c r="F93" s="16"/>
+      <c r="F93" s="16" t="s">
+        <v>344</v>
+      </c>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
       <c r="I93" s="18"/>
@@ -5970,12 +6186,14 @@
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="F94" s="5"/>
+        <v>578</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="20"/>
@@ -5988,9 +6206,11 @@
         <v>347</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="F95" s="16"/>
+        <v>579</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="18"/>
@@ -6005,7 +6225,9 @@
       <c r="E96" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="F96" s="5"/>
+      <c r="F96" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="20"/>
@@ -6018,7 +6240,7 @@
         <v>125</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F97" s="16" t="s">
         <v>324</v>
@@ -6032,10 +6254,10 @@
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="19" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>314</v>
@@ -6049,7 +6271,7 @@
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="16" t="s">
@@ -6070,7 +6292,7 @@
         <v>489</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -6081,10 +6303,10 @@
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F101" s="16" t="s">
         <v>232</v>
@@ -6101,7 +6323,7 @@
         <v>176</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>232</v>
@@ -6115,10 +6337,10 @@
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="17" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>232</v>
@@ -6246,8 +6468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AB9E82-BB6A-FA4A-B0CC-309E289AE3E9}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A60" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6321,7 +6543,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="45"/>
@@ -6336,7 +6558,7 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="45"/>
@@ -6387,7 +6609,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -7047,7 +7269,9 @@
       <c r="E40" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="20"/>
@@ -7111,7 +7335,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -7199,7 +7423,7 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -7245,7 +7469,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -7312,7 +7536,7 @@
         <v>152</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -7442,7 +7666,7 @@
         <v>173</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -7465,7 +7689,7 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -7534,7 +7758,9 @@
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="16" t="s">
+        <v>599</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="20"/>
@@ -7549,7 +7775,9 @@
         <v>297</v>
       </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="16"/>
+      <c r="F64" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="18"/>
@@ -7560,9 +7788,13 @@
       <c r="C65" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="E65" s="19"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="16" t="s">
+        <v>600</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="20"/>
@@ -7571,13 +7803,15 @@
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>557</v>
+        <v>486</v>
       </c>
       <c r="E66" s="17"/>
-      <c r="F66" s="16"/>
+      <c r="F66" s="16" t="s">
+        <v>482</v>
+      </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="18"/>
@@ -7586,9 +7820,15 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="20"/>
@@ -7596,10 +7836,16 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
+      <c r="C68" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>603</v>
+      </c>
       <c r="E68" s="17"/>
-      <c r="F68" s="16"/>
+      <c r="F68" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
       <c r="I68" s="18"/>
@@ -7607,10 +7853,16 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>604</v>
+      </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="16" t="s">
+        <v>379</v>
+      </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="20"/>
@@ -7618,10 +7870,14 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="C70" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="16"/>
+      <c r="F70" s="16" t="s">
+        <v>215</v>
+      </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="18"/>
@@ -7629,10 +7885,14 @@
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>401</v>
+      </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="20"/>
@@ -7640,10 +7900,14 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="C72" s="16" t="s">
+        <v>605</v>
+      </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="16"/>
+      <c r="F72" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
       <c r="I72" s="18"/>
@@ -7651,10 +7915,14 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="20"/>
@@ -7663,9 +7931,15 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="16"/>
+      <c r="D74" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
       <c r="I74" s="18"/>
@@ -7673,10 +7947,14 @@
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="20"/>
@@ -7685,9 +7963,15 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="16"/>
+      <c r="D76" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="18"/>
@@ -7696,9 +7980,13 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="19"/>
+      <c r="D77" s="19" t="s">
+        <v>612</v>
+      </c>
       <c r="E77" s="19"/>
-      <c r="F77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>613</v>
+      </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="20"/>
@@ -7707,9 +7995,13 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
+      <c r="D78" s="17" t="s">
+        <v>487</v>
+      </c>
       <c r="E78" s="17"/>
-      <c r="F78" s="16"/>
+      <c r="F78" s="16" t="s">
+        <v>613</v>
+      </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="18"/>
@@ -7718,9 +8010,13 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="19"/>
+      <c r="D79" s="19" t="s">
+        <v>391</v>
+      </c>
       <c r="E79" s="19"/>
-      <c r="F79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>613</v>
+      </c>
       <c r="G79" s="5"/>
       <c r="H79" s="16"/>
       <c r="I79" s="20"/>
@@ -7809,10 +8105,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6895C5A-DE82-3942-B271-698B4D08AC34}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7825,7 +8121,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="34">
+        <v>45140</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -7838,7 +8136,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>616</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -7881,8 +8181,12 @@
       <c r="C5" s="8"/>
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>618</v>
+      </c>
       <c r="H5" s="45"/>
       <c r="I5" s="36"/>
     </row>
@@ -7894,8 +8198,12 @@
       <c r="C6" s="8"/>
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="F6" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>619</v>
+      </c>
       <c r="H6" s="45"/>
       <c r="I6" s="36"/>
     </row>
@@ -7941,8 +8249,12 @@
       <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
@@ -7962,7 +8274,9 @@
       <c r="E10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
@@ -8025,7 +8339,9 @@
       <c r="E13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="20"/>
@@ -8172,7 +8488,9 @@
       <c r="E20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="18"/>
@@ -8193,7 +8511,9 @@
       <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="20"/>
@@ -8298,7 +8618,9 @@
       <c r="E26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
@@ -8382,7 +8704,9 @@
       <c r="E30" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="20"/>
@@ -8592,7 +8916,9 @@
       <c r="E40" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="20"/>
@@ -8655,7 +8981,9 @@
       <c r="E43" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="24"/>
+      <c r="F43" s="24" t="s">
+        <v>624</v>
+      </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="26"/>
@@ -8718,7 +9046,9 @@
       <c r="E46" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="16"/>
+      <c r="F46" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="18"/>
@@ -8781,7 +9111,9 @@
       <c r="E49" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="20"/>
@@ -8802,7 +9134,9 @@
       <c r="E50" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="16"/>
+      <c r="F50" s="16" t="s">
+        <v>282</v>
+      </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="18"/>
@@ -8823,7 +9157,9 @@
       <c r="E51" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="20"/>
@@ -8844,7 +9180,9 @@
       <c r="E52" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="16"/>
+      <c r="F52" s="16" t="s">
+        <v>245</v>
+      </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -8886,7 +9224,9 @@
       <c r="E54" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>625</v>
+      </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="18"/>
@@ -8949,7 +9289,9 @@
       <c r="E57" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>626</v>
+      </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="20"/>
@@ -8991,8 +9333,12 @@
       <c r="E59" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>511</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
     </row>
@@ -9054,10 +9400,14 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>627</v>
+      </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="20"/>
@@ -9065,10 +9415,14 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="C64" s="16" t="s">
+        <v>628</v>
+      </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="16"/>
+      <c r="F64" s="16" t="s">
+        <v>639</v>
+      </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="18"/>
@@ -9076,10 +9430,15 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="5"/>
+      <c r="D65" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="20"/>
@@ -9087,10 +9446,18 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="16"/>
+      <c r="C66" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>638</v>
+      </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="18"/>
@@ -9099,42 +9466,68 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="5"/>
+      <c r="D67" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>637</v>
+      </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="20"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
+      <c r="A68" s="16" t="s">
+        <v>633</v>
+      </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
+      <c r="E68" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="H68" s="16"/>
       <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>633</v>
+      </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="5"/>
+      <c r="E69" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="20"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
+      <c r="A70" s="16" t="s">
+        <v>633</v>
+      </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="16"/>
+      <c r="E70" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>631</v>
+      </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="18"/>
@@ -9142,10 +9535,14 @@
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="16" t="s">
+        <v>262</v>
+      </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="20"/>
@@ -9154,9 +9551,15 @@
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="16"/>
+      <c r="D72" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
       <c r="I72" s="18"/>
@@ -9164,10 +9567,14 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>642</v>
+      </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="5"/>
+      <c r="F73" s="16" t="s">
+        <v>652</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="20"/>
@@ -9175,10 +9582,14 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="C74" s="16" t="s">
+        <v>643</v>
+      </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
-      <c r="F74" s="16"/>
+      <c r="F74" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
       <c r="I74" s="18"/>
@@ -9186,10 +9597,16 @@
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="5"/>
+      <c r="E75" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="20"/>
@@ -9197,10 +9614,18 @@
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="16"/>
+      <c r="C76" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="18"/>
@@ -9208,10 +9633,14 @@
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>647</v>
+      </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="20"/>
@@ -9219,10 +9648,16 @@
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="C78" s="16" t="s">
+        <v>452</v>
+      </c>
       <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="16"/>
+      <c r="E78" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="18"/>
@@ -9230,10 +9665,14 @@
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="C79" s="5" t="s">
+        <v>648</v>
+      </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
-      <c r="F79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="G79" s="5"/>
       <c r="H79" s="16"/>
       <c r="I79" s="20"/>
@@ -9241,10 +9680,14 @@
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="C80" s="16" t="s">
+        <v>649</v>
+      </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="16"/>
+      <c r="F80" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="G80" s="16"/>
       <c r="H80" s="47"/>
       <c r="I80" s="18"/>
@@ -9252,10 +9695,14 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
-      <c r="F81" s="5"/>
+      <c r="F81" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="20"/>
@@ -9263,10 +9710,14 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
+      <c r="C82" s="16" t="s">
+        <v>650</v>
+      </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="16"/>
+      <c r="F82" s="16" t="s">
+        <v>214</v>
+      </c>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="18"/>
@@ -9274,10 +9725,14 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="C83" s="5" t="s">
+        <v>651</v>
+      </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
-      <c r="F83" s="5"/>
+      <c r="F83" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="20"/>
@@ -9285,35 +9740,143 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="C84" s="16" t="s">
+        <v>653</v>
+      </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>656</v>
+      </c>
       <c r="H84" s="16"/>
       <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>602</v>
+      </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
+      <c r="E85" s="19" t="s">
+        <v>655</v>
+      </c>
       <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="G85" s="5" t="s">
+        <v>657</v>
+      </c>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
+      <c r="A86" s="16" t="s">
+        <v>602</v>
+      </c>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="E86" s="17" t="s">
+        <v>654</v>
+      </c>
       <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
+      <c r="G86" s="16" t="s">
+        <v>658</v>
+      </c>
       <c r="H86" s="16"/>
       <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Glacial_succession_survey/Plant_survey_DATA.xlsx
+++ b/Glacial_succession_survey/Plant_survey_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciaranorton/Documents/GitHub/Garibaldi/Glacial_succession_survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00618CD9-86F9-E449-BBF7-8D439E2428EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B7082D-28A4-AC4C-BB4E-66D3D07765D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="4" activeTab="11" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="4" activeTab="13" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,11 @@
     <sheet name="#12" sheetId="12" r:id="rId12"/>
     <sheet name="#13" sheetId="13" r:id="rId13"/>
     <sheet name="#14" sheetId="11" r:id="rId14"/>
+    <sheet name="#15" sheetId="15" r:id="rId15"/>
+    <sheet name="#16" sheetId="16" r:id="rId16"/>
+    <sheet name="#17" sheetId="17" r:id="rId17"/>
+    <sheet name="#18" sheetId="18" r:id="rId18"/>
+    <sheet name="#19" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="726">
   <si>
     <t>Date:</t>
   </si>
@@ -1866,6 +1871,9 @@
     <t>sp11</t>
   </si>
   <si>
+    <t>19m</t>
+  </si>
+  <si>
     <t>Edible thistle</t>
   </si>
   <si>
@@ -2029,13 +2037,220 @@
   </si>
   <si>
     <t>Rolmie's Saxifrage</t>
+  </si>
+  <si>
+    <t>WP59</t>
+  </si>
+  <si>
+    <t>WP42</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 4</t>
+  </si>
+  <si>
+    <t>13m</t>
+  </si>
+  <si>
+    <t>3, 2, 4, 4</t>
+  </si>
+  <si>
+    <t>Rhodendronto</t>
+  </si>
+  <si>
+    <t>mentosum</t>
+  </si>
+  <si>
+    <t>acris</t>
+  </si>
+  <si>
+    <t>glacialis</t>
+  </si>
+  <si>
+    <t>Planthera</t>
+  </si>
+  <si>
+    <t>dilata</t>
+  </si>
+  <si>
+    <t>Antrnia</t>
+  </si>
+  <si>
+    <t>lanata</t>
+  </si>
+  <si>
+    <t>multiradiata</t>
+  </si>
+  <si>
+    <t>4, 1, 0, 1</t>
+  </si>
+  <si>
+    <t>Gramminoids</t>
+  </si>
+  <si>
+    <t>"2 gramminoids"</t>
+  </si>
+  <si>
+    <t>C. C, M. F</t>
+  </si>
+  <si>
+    <t>Chelsea, Noemie, Cassandra</t>
+  </si>
+  <si>
+    <t>WP27</t>
+  </si>
+  <si>
+    <t>4, 4, 2, 0</t>
+  </si>
+  <si>
+    <t>1, 4, 0, 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">spp. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>arcticus</t>
+    </r>
+  </si>
+  <si>
+    <t>4, 2, 4, 4</t>
+  </si>
+  <si>
+    <t>pedicularis</t>
+  </si>
+  <si>
+    <t>spp1 (hairy)</t>
+  </si>
+  <si>
+    <t>Bracteosa</t>
+  </si>
+  <si>
+    <t>Dumondii</t>
+  </si>
+  <si>
+    <t>4, 4, 3, 3</t>
+  </si>
+  <si>
+    <t>4, 1, 4, 4</t>
+  </si>
+  <si>
+    <t>1, 2, 0, 2</t>
+  </si>
+  <si>
+    <t>WP7</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 0</t>
+  </si>
+  <si>
+    <t>3, 1, 1, 4</t>
+  </si>
+  <si>
+    <t>WP57</t>
+  </si>
+  <si>
+    <t>2, 0, 0, 4</t>
+  </si>
+  <si>
+    <t>3, 1, 0, 1</t>
+  </si>
+  <si>
+    <t>1, 3, 3, 3</t>
+  </si>
+  <si>
+    <t>WP56</t>
+  </si>
+  <si>
+    <t>3, 1, 3, 2</t>
+  </si>
+  <si>
+    <t>3, 2, 4, 2</t>
+  </si>
+  <si>
+    <t>3, 0, 0, 1</t>
+  </si>
+  <si>
+    <t>4, 3, 1, 2</t>
+  </si>
+  <si>
+    <t>Margaritacer</t>
+  </si>
+  <si>
+    <t>ovalifolium</t>
+  </si>
+  <si>
+    <t>14m</t>
+  </si>
+  <si>
+    <t>3, 2, 0, 2</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>Luanus</t>
+  </si>
+  <si>
+    <t>Valfriana</t>
+  </si>
+  <si>
+    <t>Rhododendron</t>
+  </si>
+  <si>
+    <t>wintergreen</t>
+  </si>
+  <si>
+    <t>parviflora</t>
+  </si>
+  <si>
+    <t>stichensis</t>
+  </si>
+  <si>
+    <t>albiblofum</t>
+  </si>
+  <si>
+    <t>red huckleberry</t>
+  </si>
+  <si>
+    <t>spp2 (no hair)</t>
+  </si>
+  <si>
+    <t>ovata</t>
+  </si>
+  <si>
+    <t>rupicola</t>
+  </si>
+  <si>
+    <t>rlemosa</t>
+  </si>
+  <si>
+    <t>silene</t>
+  </si>
+  <si>
+    <t>acaulis</t>
+  </si>
+  <si>
+    <t>micranthes</t>
+  </si>
+  <si>
+    <t>spp4 (tall)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2083,6 +2298,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2309,7 +2531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2386,6 +2608,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6543,7 +6768,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="45"/>
@@ -6558,7 +6783,7 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="45"/>
@@ -7901,7 +8126,7 @@
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
@@ -7916,7 +8141,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
@@ -7932,10 +8157,10 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>216</v>
@@ -7948,7 +8173,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
@@ -7964,10 +8189,10 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F76" s="16" t="s">
         <v>202</v>
@@ -7981,11 +8206,11 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="19" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -8000,7 +8225,7 @@
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -8015,7 +8240,7 @@
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="16"/>
@@ -8107,7 +8332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6895C5A-DE82-3942-B271-698B4D08AC34}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="126" workbookViewId="0">
       <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
@@ -8137,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -8182,10 +8407,10 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="36"/>
@@ -8199,10 +8424,10 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="G6" s="46" t="s">
         <v>620</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>619</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="36"/>
@@ -8250,10 +8475,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
@@ -8917,7 +9142,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -8982,7 +9207,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -9225,7 +9450,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -9290,7 +9515,7 @@
         <v>170</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -9401,7 +9626,7 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
@@ -9416,12 +9641,12 @@
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="16" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -9434,7 +9659,7 @@
         <v>362</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>496</v>
@@ -9450,13 +9675,13 @@
         <v>212</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -9467,13 +9692,13 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>601</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -9481,16 +9706,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>222</v>
@@ -9500,13 +9725,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>222</v>
@@ -9517,16 +9742,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
@@ -9552,10 +9777,10 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>218</v>
@@ -9568,12 +9793,12 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="16" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -9583,7 +9808,7 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
@@ -9615,13 +9840,13 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F76" s="16" t="s">
         <v>230</v>
@@ -9634,7 +9859,7 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -9653,7 +9878,7 @@
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>230</v>
@@ -9666,7 +9891,7 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -9681,7 +9906,7 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
@@ -9711,7 +9936,7 @@
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
@@ -9726,7 +9951,7 @@
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
@@ -9741,13 +9966,13 @@
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H84" s="16"/>
       <c r="I84" s="18"/>
@@ -9760,11 +9985,11 @@
       <c r="C85" s="5"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
@@ -9777,11 +10002,11 @@
       <c r="C86" s="16"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H86" s="16"/>
       <c r="I86" s="18"/>
@@ -9790,7 +10015,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -9888,7 +10113,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9901,7 +10126,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="60">
+        <v>45139</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9914,7 +10141,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" t="s">
+        <v>678</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -9957,8 +10186,12 @@
       <c r="C5" s="8"/>
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="61">
+        <v>49925990</v>
+      </c>
+      <c r="G5" s="46">
+        <v>49.927010000000003</v>
+      </c>
       <c r="H5" s="45"/>
       <c r="I5" s="36"/>
     </row>
@@ -9970,8 +10203,12 @@
       <c r="C6" s="8"/>
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="F6" s="46">
+        <v>122.988428</v>
+      </c>
+      <c r="G6" s="46">
+        <v>122.992102</v>
+      </c>
       <c r="H6" s="45"/>
       <c r="I6" s="36"/>
     </row>
@@ -10017,8 +10254,12 @@
       <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
@@ -10038,8 +10279,12 @@
       <c r="E10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
     </row>
@@ -10123,7 +10368,9 @@
         <v>31</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>265</v>
+      </c>
       <c r="H14" s="16"/>
       <c r="I14" s="18"/>
     </row>
@@ -10270,7 +10517,9 @@
         <v>55</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20"/>
     </row>
@@ -10374,8 +10623,12 @@
       <c r="E26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
     </row>
@@ -10416,7 +10669,9 @@
       <c r="E28" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="20"/>
@@ -10437,7 +10692,9 @@
       <c r="E29" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="16" t="s">
+        <v>321</v>
+      </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="18"/>
@@ -10479,8 +10736,12 @@
       <c r="E31" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="F31" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>279</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
     </row>
@@ -10542,8 +10803,12 @@
       <c r="E34" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="F34" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>262</v>
+      </c>
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
     </row>
@@ -10605,7 +10870,9 @@
       <c r="E37" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>663</v>
+      </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="18"/>
@@ -10647,8 +10914,12 @@
       <c r="E39" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="H39" s="16"/>
       <c r="I39" s="18"/>
     </row>
@@ -10731,8 +11002,12 @@
       <c r="E43" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="F43" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>281</v>
+      </c>
       <c r="H43" s="24"/>
       <c r="I43" s="26"/>
     </row>
@@ -10795,7 +11070,9 @@
         <v>133</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="H46" s="16"/>
       <c r="I46" s="18"/>
     </row>
@@ -10815,8 +11092,12 @@
       <c r="E47" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>665</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
     </row>
@@ -10879,7 +11160,9 @@
         <v>145</v>
       </c>
       <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18"/>
     </row>
@@ -10941,7 +11224,9 @@
       <c r="E53" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="20"/>
@@ -10962,7 +11247,9 @@
       <c r="E54" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>214</v>
+      </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="18"/>
@@ -11067,8 +11354,12 @@
       <c r="E59" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
     </row>
@@ -11088,8 +11379,12 @@
       <c r="E60" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>265</v>
+      </c>
       <c r="H60" s="16"/>
       <c r="I60" s="18"/>
     </row>
@@ -11122,8 +11417,12 @@
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
+      <c r="F62" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>675</v>
+      </c>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
     </row>
@@ -11131,9 +11430,15 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="20"/>
@@ -11142,9 +11447,15 @@
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="16"/>
+      <c r="D64" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="18"/>
@@ -11153,10 +11464,16 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
+      <c r="D65" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>669</v>
+      </c>
       <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="G65" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="H65" s="5"/>
       <c r="I65" s="20"/>
     </row>
@@ -11164,10 +11481,16 @@
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="D66" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>671</v>
+      </c>
       <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
+      <c r="G66" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="H66" s="16"/>
       <c r="I66" s="18"/>
     </row>
@@ -11175,10 +11498,16 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
+      <c r="D67" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>673</v>
+      </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="G67" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="H67" s="5"/>
       <c r="I67" s="20"/>
     </row>
@@ -11186,21 +11515,33 @@
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="D68" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>674</v>
+      </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
+      <c r="G68" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="H68" s="16"/>
       <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>676</v>
+      </c>
       <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>677</v>
+      </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="G69" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="H69" s="5"/>
       <c r="I69" s="20"/>
     </row>
@@ -11398,10 +11739,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8973E348-2E82-6E46-97E0-777F7215A388}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="143" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11415,6 +11756,1975 @@
         <v>0</v>
       </c>
       <c r="B1" s="34"/>
+      <c r="C1" s="60">
+        <v>45139</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46">
+        <v>49.93092</v>
+      </c>
+      <c r="G5" s="46">
+        <v>49.931910000000002</v>
+      </c>
+      <c r="H5" s="45">
+        <v>49.93121</v>
+      </c>
+      <c r="I5" s="36">
+        <v>49.930239999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46">
+        <v>122.99162</v>
+      </c>
+      <c r="G6" s="46">
+        <v>122.99318</v>
+      </c>
+      <c r="H6" s="45">
+        <v>122.98957</v>
+      </c>
+      <c r="I6" s="36">
+        <v>122.99015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="H74" s="16"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="H78" s="16"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="H79" s="16"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="H80" s="47"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="62" t="s">
+        <v>722</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B179D8F3-07F8-0D4C-8387-2BCE59642B13}">
+  <dimension ref="A1:I86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -12905,6 +15215,1555 @@
       <c r="I86" s="18"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E08E1D-F827-4B4E-BE0E-6D89C391C697}">
+  <dimension ref="A1:I86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F659E60B-6E74-3848-8560-6FFBFA7956F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DEB0CF-5D01-4C47-8AA4-0677D178C275}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A6B5E3-1967-EF4F-9317-DF3535C992B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Glacial_succession_survey/Plant_survey_DATA.xlsx
+++ b/Glacial_succession_survey/Plant_survey_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciaranorton/Documents/GitHub/Garibaldi/Glacial_succession_survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B7082D-28A4-AC4C-BB4E-66D3D07765D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF5644D-C950-5148-B3F0-F81D09A0B864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="4" activeTab="13" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="4" activeTab="14" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5709" uniqueCount="778">
   <si>
     <t>Date:</t>
   </si>
@@ -2244,6 +2244,162 @@
   </si>
   <si>
     <t>spp4 (tall)</t>
+  </si>
+  <si>
+    <t>WP39</t>
+  </si>
+  <si>
+    <t>CE09</t>
+  </si>
+  <si>
+    <t>CE1</t>
+  </si>
+  <si>
+    <t>WP10</t>
+  </si>
+  <si>
+    <t>16m</t>
+  </si>
+  <si>
+    <t>2, 2, 1, 0</t>
+  </si>
+  <si>
+    <t>2, 0, 1, 3</t>
+  </si>
+  <si>
+    <t>0, 1, 3, 2</t>
+  </si>
+  <si>
+    <t>4, 1, 0, 4</t>
+  </si>
+  <si>
+    <t>2, 0, 1, 0</t>
+  </si>
+  <si>
+    <t>3, 1, 1, 3</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 4</t>
+  </si>
+  <si>
+    <t>3, 0, 1, 2</t>
+  </si>
+  <si>
+    <t>2, 2, 4, 3</t>
+  </si>
+  <si>
+    <t>0, 2, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 1, 2, 2</t>
+  </si>
+  <si>
+    <t>1, 0, 1, 2</t>
+  </si>
+  <si>
+    <t>Asteaceae</t>
+  </si>
+  <si>
+    <t>Orchidacae</t>
+  </si>
+  <si>
+    <t>Buterbun</t>
+  </si>
+  <si>
+    <t>Hetaciles</t>
+  </si>
+  <si>
+    <t>Platanthea</t>
+  </si>
+  <si>
+    <t>Frigidus</t>
+  </si>
+  <si>
+    <t>Dilatata</t>
+  </si>
+  <si>
+    <t>mattis</t>
+  </si>
+  <si>
+    <t>4, 0, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 2, 0, 3</t>
+  </si>
+  <si>
+    <t>1, 2, 2, 2</t>
+  </si>
+  <si>
+    <t>Arctic blue grass</t>
+  </si>
+  <si>
+    <t>1, 2, 2, 0</t>
+  </si>
+  <si>
+    <t>Pasgne flower/anenome</t>
+  </si>
+  <si>
+    <t>Athyrium</t>
+  </si>
+  <si>
+    <t>millefolium</t>
+  </si>
+  <si>
+    <t>mertensianus</t>
+  </si>
+  <si>
+    <t>Rusty Saxifrage</t>
+  </si>
+  <si>
+    <t>Polystichum lonchitis</t>
+  </si>
+  <si>
+    <t>Pink mimulus</t>
+  </si>
+  <si>
+    <t>luzula</t>
+  </si>
+  <si>
+    <t>triste</t>
+  </si>
+  <si>
+    <t>Sitka Valerian</t>
+  </si>
+  <si>
+    <t>Potentilla mabirens?</t>
+  </si>
+  <si>
+    <t>Glacier lily</t>
+  </si>
+  <si>
+    <t>Alpine bentgrass</t>
+  </si>
+  <si>
+    <t>sibbaldia</t>
+  </si>
+  <si>
+    <t>Thistle</t>
+  </si>
+  <si>
+    <t>0, 1, 0, 1</t>
+  </si>
+  <si>
+    <t>1, 3, 1, 0</t>
+  </si>
+  <si>
+    <t>0, 1, 0, 2</t>
+  </si>
+  <si>
+    <t>1, 0, 1, 3</t>
+  </si>
+  <si>
+    <t>3, 1, 0, 2</t>
+  </si>
+  <si>
+    <t>4, 0, 0, 3</t>
+  </si>
+  <si>
+    <t>4, 1, 0, 2</t>
   </si>
 </sst>
 </file>
@@ -2309,7 +2465,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2350,6 +2506,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2531,7 +2693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2611,6 +2773,9 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11741,8 +11906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8973E348-2E82-6E46-97E0-777F7215A388}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13708,10 +13873,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B179D8F3-07F8-0D4C-8387-2BCE59642B13}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13780,10 +13945,10 @@
       <c r="C5" s="8"/>
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="36"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -13793,10 +13958,10 @@
       <c r="C6" s="8"/>
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="36"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -13840,10 +14005,18 @@
       <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="F9" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -13861,8 +14034,12 @@
       <c r="E10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>730</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
     </row>
@@ -13945,9 +14122,15 @@
       <c r="E14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>731</v>
+      </c>
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -14029,7 +14212,9 @@
       <c r="E18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>233</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="18"/>
@@ -14052,7 +14237,9 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -14092,10 +14279,16 @@
       <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
@@ -14155,9 +14348,13 @@
       <c r="E24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -14176,7 +14373,9 @@
       <c r="E25" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28" t="s">
+        <v>214</v>
+      </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="30"/>
@@ -14197,8 +14396,12 @@
       <c r="E26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>706</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
     </row>
@@ -14282,9 +14485,13 @@
         <v>82</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="20"/>
+      <c r="I30" s="20" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
@@ -14303,7 +14510,9 @@
         <v>84</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="16" t="s">
+        <v>265</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
     </row>
@@ -14365,10 +14574,18 @@
       <c r="E34" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="26"/>
+      <c r="F34" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
@@ -14386,8 +14603,12 @@
       <c r="E35" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="F35" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>736</v>
+      </c>
       <c r="H35" s="16"/>
       <c r="I35" s="18"/>
     </row>
@@ -14410,7 +14631,9 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="20"/>
+      <c r="I36" s="20" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
@@ -14428,7 +14651,9 @@
       <c r="E37" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>737</v>
+      </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="18"/>
@@ -14491,8 +14716,12 @@
       <c r="E40" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="H40" s="5"/>
       <c r="I40" s="20"/>
     </row>
@@ -14533,7 +14762,9 @@
       <c r="E42" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="31"/>
+      <c r="F42" s="31" t="s">
+        <v>265</v>
+      </c>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
       <c r="I42" s="33"/>
@@ -14576,7 +14807,9 @@
         <v>128</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="16" t="s">
+        <v>706</v>
+      </c>
       <c r="H44" s="16"/>
       <c r="I44" s="18"/>
     </row>
@@ -14640,8 +14873,12 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="20"/>
+      <c r="H47" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
@@ -14701,10 +14938,16 @@
       <c r="E50" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
+      <c r="F50" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>594</v>
+      </c>
       <c r="H50" s="16"/>
-      <c r="I50" s="18"/>
+      <c r="I50" s="18" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
@@ -14723,7 +14966,9 @@
         <v>148</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="20"/>
     </row>
@@ -14743,8 +14988,12 @@
       <c r="E52" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="F52" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>614</v>
+      </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
     </row>
@@ -14785,10 +15034,16 @@
       <c r="E54" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>353</v>
+      </c>
       <c r="H54" s="16"/>
-      <c r="I54" s="18"/>
+      <c r="I54" s="18" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
@@ -14849,8 +15104,12 @@
         <v>170</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="G57" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -14890,10 +15149,16 @@
       <c r="E59" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>372</v>
+      </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="20"/>
+      <c r="I59" s="20" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
@@ -14911,10 +15176,14 @@
       <c r="E60" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>738</v>
+      </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
-      <c r="I60" s="18"/>
+      <c r="I60" s="18" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
@@ -14931,7 +15200,9 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="20"/>
+      <c r="I61" s="20" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
@@ -14945,128 +15216,232 @@
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="18"/>
+      <c r="F62" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="16"/>
+      <c r="B64" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>279</v>
+      </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
-      <c r="I64" s="18"/>
+      <c r="I64" s="18" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="5"/>
+      <c r="D65" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>751</v>
+      </c>
       <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="20"/>
+      <c r="H65" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
+      <c r="D66" s="17" t="s">
+        <v>381</v>
+      </c>
       <c r="E66" s="17"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
+      <c r="F66" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>327</v>
+      </c>
       <c r="H66" s="16"/>
-      <c r="I66" s="18"/>
+      <c r="I66" s="18" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="19"/>
+      <c r="D67" s="19" t="s">
+        <v>572</v>
+      </c>
       <c r="E67" s="19"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="F67" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>697</v>
+      </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="20"/>
+      <c r="I67" s="20" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="18"/>
+      <c r="D68" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>754</v>
+      </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="H69" s="5"/>
       <c r="I69" s="20"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="C70" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
+      <c r="F70" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="H70" s="16"/>
-      <c r="I70" s="18"/>
+      <c r="I70" s="18" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>502</v>
+      </c>
       <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+      <c r="H71" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="I71" s="20"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
+      <c r="D72" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>771</v>
+      </c>
       <c r="H72" s="16"/>
-      <c r="I72" s="18"/>
+      <c r="I72" s="18" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="5"/>
+      <c r="D73" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="20"/>
@@ -15075,32 +15450,50 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="D74" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>758</v>
+      </c>
       <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
+      <c r="G74" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="H74" s="16"/>
-      <c r="I74" s="18"/>
+      <c r="I74" s="18" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="G75" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
+      <c r="D76" s="17" t="s">
+        <v>206</v>
+      </c>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
+      <c r="G76" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="H76" s="16"/>
       <c r="I76" s="18"/>
     </row>
@@ -15108,43 +15501,63 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
+      <c r="D77" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>759</v>
+      </c>
       <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="G77" s="5" t="s">
+        <v>773</v>
+      </c>
       <c r="H77" s="5"/>
-      <c r="I77" s="20"/>
+      <c r="I77" s="20" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="C78" s="16" t="s">
+        <v>586</v>
+      </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
-      <c r="I78" s="18"/>
+      <c r="I78" s="18" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="C79" s="5" t="s">
+        <v>760</v>
+      </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>774</v>
+      </c>
       <c r="H79" s="16"/>
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="C80" s="16" t="s">
+        <v>761</v>
+      </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
+      <c r="G80" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="H80" s="47"/>
       <c r="I80" s="18"/>
     </row>
@@ -15152,21 +15565,31 @@
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
+      <c r="D81" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
+      <c r="G81" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="H81" s="5"/>
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
+      <c r="C82" s="17" t="s">
+        <v>762</v>
+      </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
+      <c r="G82" s="16" t="s">
+        <v>401</v>
+      </c>
       <c r="H82" s="16"/>
       <c r="I82" s="18"/>
     </row>
@@ -15174,10 +15597,14 @@
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="19"/>
+      <c r="D83" s="19" t="s">
+        <v>646</v>
+      </c>
       <c r="E83" s="19"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="H83" s="5"/>
       <c r="I83" s="20"/>
     </row>
@@ -15185,10 +15612,16 @@
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="D84" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>763</v>
+      </c>
       <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="H84" s="16"/>
       <c r="I84" s="18"/>
     </row>
@@ -15196,23 +15629,177 @@
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
+      <c r="D85" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>764</v>
+      </c>
       <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="G85" s="5" t="s">
+        <v>730</v>
+      </c>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
+      <c r="C86" s="16" t="s">
+        <v>251</v>
+      </c>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="16" t="s">
+        <v>775</v>
+      </c>
       <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E92" s="17"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="18" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="47" t="s">
+        <v>770</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="20"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Glacial_succession_survey/Plant_survey_DATA.xlsx
+++ b/Glacial_succession_survey/Plant_survey_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciaranorton/Documents/GitHub/Garibaldi/Glacial_succession_survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF5644D-C950-5148-B3F0-F81D09A0B864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB7432-278C-014A-8709-FE00762C326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="4" activeTab="14" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
     <sheet name="#15" sheetId="15" r:id="rId15"/>
     <sheet name="#16" sheetId="16" r:id="rId16"/>
     <sheet name="#17" sheetId="17" r:id="rId17"/>
-    <sheet name="#18" sheetId="18" r:id="rId18"/>
-    <sheet name="#19" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5709" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6127" uniqueCount="830">
   <si>
     <t>Date:</t>
   </si>
@@ -2400,6 +2398,162 @@
   </si>
   <si>
     <t>4, 1, 0, 2</t>
+  </si>
+  <si>
+    <t>CE10</t>
+  </si>
+  <si>
+    <t>WP12</t>
+  </si>
+  <si>
+    <t>WP65</t>
+  </si>
+  <si>
+    <t>2, 0, 1, 2</t>
+  </si>
+  <si>
+    <t>3, 0, 1, 1</t>
+  </si>
+  <si>
+    <t>4, 3, 0, 3</t>
+  </si>
+  <si>
+    <t>3, 3, 4, 4</t>
+  </si>
+  <si>
+    <t>Dwarf alpine pearl crepis</t>
+  </si>
+  <si>
+    <t>Arctic sandwort</t>
+  </si>
+  <si>
+    <t>Tree seedling</t>
+  </si>
+  <si>
+    <t>Asteracae</t>
+  </si>
+  <si>
+    <t>Dwarf mountain groundsel</t>
+  </si>
+  <si>
+    <t>senecio</t>
+  </si>
+  <si>
+    <t>fremontii</t>
+  </si>
+  <si>
+    <t>Mountain monkeyflower</t>
+  </si>
+  <si>
+    <t>tilingii</t>
+  </si>
+  <si>
+    <t>Hedgehog rush</t>
+  </si>
+  <si>
+    <t>JG, MS, CN</t>
+  </si>
+  <si>
+    <t>Abies seeding</t>
+  </si>
+  <si>
+    <t>Rockcress carabidopsis</t>
+  </si>
+  <si>
+    <t>Rusty saxifrage</t>
+  </si>
+  <si>
+    <t>Luzula parviflora</t>
+  </si>
+  <si>
+    <t>Wooly hawksweed</t>
+  </si>
+  <si>
+    <t>Dryas drummondii</t>
+  </si>
+  <si>
+    <t>CE01</t>
+  </si>
+  <si>
+    <t>1, 0, 0, 3</t>
+  </si>
+  <si>
+    <t>3, 3, 1, 0</t>
+  </si>
+  <si>
+    <t>4, 4, 2, 4</t>
+  </si>
+  <si>
+    <t>drumondii</t>
+  </si>
+  <si>
+    <t>0, 2, 0, 2</t>
+  </si>
+  <si>
+    <t>0, 3, 4, 2</t>
+  </si>
+  <si>
+    <t>1, 0, 4, 0</t>
+  </si>
+  <si>
+    <t>1, 0, 2, 3</t>
+  </si>
+  <si>
+    <t>4, 4, 4, 2</t>
+  </si>
+  <si>
+    <t>Anenomone</t>
+  </si>
+  <si>
+    <t>Valenaria</t>
+  </si>
+  <si>
+    <t>Hieraceum</t>
+  </si>
+  <si>
+    <t>occidentalis</t>
+  </si>
+  <si>
+    <t>nar</t>
+  </si>
+  <si>
+    <t>glaucophylla</t>
+  </si>
+  <si>
+    <t>1, 4, 2, 4</t>
+  </si>
+  <si>
+    <t>1, 2, 1, 2</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 1</t>
+  </si>
+  <si>
+    <t>1, 0, 2, 0</t>
+  </si>
+  <si>
+    <t>0, 4, 1, 1</t>
+  </si>
+  <si>
+    <t>3, 2, 2, 1</t>
+  </si>
+  <si>
+    <t>Grass parnasus</t>
+  </si>
+  <si>
+    <t>Northern golden rod</t>
+  </si>
+  <si>
+    <t>One sided wintergreen</t>
+  </si>
+  <si>
+    <t>2, 1, 1, 2</t>
+  </si>
+  <si>
+    <t>CE08</t>
+  </si>
+  <si>
+    <t>CE CN</t>
   </si>
 </sst>
 </file>
@@ -3092,7 +3246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA28B8B9-E408-8845-AE18-B043797AE094}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -6858,7 +7012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AB9E82-BB6A-FA4A-B0CC-309E289AE3E9}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
@@ -8497,7 +8651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6895C5A-DE82-3942-B271-698B4D08AC34}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="126" workbookViewId="0">
+    <sheetView zoomScale="126" workbookViewId="0">
       <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
@@ -11906,8 +12060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8973E348-2E82-6E46-97E0-777F7215A388}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13875,8 +14029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B179D8F3-07F8-0D4C-8387-2BCE59642B13}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+    <sheetView topLeftCell="A17" zoomScale="83" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15810,7 +15964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E08E1D-F827-4B4E-BE0E-6D89C391C697}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -15824,7 +15978,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="34">
+        <v>39663</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -15837,7 +15993,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>795</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -15880,9 +16038,15 @@
       <c r="C5" s="8"/>
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45"/>
+      <c r="F5" s="46">
+        <v>49.552460000000004</v>
+      </c>
+      <c r="G5" s="46">
+        <v>49.553289999999997</v>
+      </c>
+      <c r="H5" s="45">
+        <v>49.55283</v>
+      </c>
       <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -15893,9 +16057,15 @@
       <c r="C6" s="8"/>
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="45"/>
+      <c r="F6" s="46">
+        <v>122.5791</v>
+      </c>
+      <c r="G6" s="46">
+        <v>122.58137000000001</v>
+      </c>
+      <c r="H6" s="45">
+        <v>122.58032</v>
+      </c>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -15940,9 +16110,15 @@
       <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>780</v>
+      </c>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -15962,8 +16138,12 @@
         <v>19</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -16025,7 +16205,9 @@
         <v>29</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="20"/>
     </row>
@@ -16045,7 +16227,9 @@
       <c r="E14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="18"/>
@@ -16110,7 +16294,9 @@
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="24" t="s">
+        <v>215</v>
+      </c>
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -16171,7 +16357,9 @@
       <c r="E20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>627</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="18"/>
@@ -16193,8 +16381,12 @@
         <v>55</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>781</v>
+      </c>
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -16236,7 +16428,9 @@
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="21" t="s">
+        <v>196</v>
+      </c>
       <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -16298,7 +16492,9 @@
         <v>19</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
     </row>
@@ -16382,8 +16578,12 @@
         <v>82</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -16403,8 +16603,12 @@
         <v>84</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="G31" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>279</v>
+      </c>
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -16424,7 +16628,9 @@
         <v>87</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="20"/>
     </row>
@@ -16486,9 +16692,13 @@
       <c r="E35" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="16" t="s">
+        <v>199</v>
+      </c>
       <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="H35" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -16570,7 +16780,9 @@
       <c r="E39" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="16"/>
+      <c r="F39" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="18"/>
@@ -16739,8 +16951,12 @@
         <v>49</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -16864,7 +17080,9 @@
       <c r="E53" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="20"/>
@@ -16885,7 +17103,9 @@
       <c r="E54" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>783</v>
+      </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="18"/>
@@ -16990,9 +17210,15 @@
       <c r="E59" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="I59" s="20"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -17045,7 +17271,9 @@
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="16"/>
+      <c r="F62" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
@@ -17053,10 +17281,14 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>785</v>
+      </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>784</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="20"/>
@@ -17064,10 +17296,14 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="C64" s="16" t="s">
+        <v>400</v>
+      </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="16"/>
+      <c r="F64" s="16" t="s">
+        <v>215</v>
+      </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="18"/>
@@ -17075,10 +17311,14 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>786</v>
+      </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="5" t="s">
+        <v>627</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="20"/>
@@ -17086,21 +17326,35 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="C66" s="16" t="s">
+        <v>787</v>
+      </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="16"/>
+      <c r="F66" s="16" t="s">
+        <v>215</v>
+      </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="18"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="20"/>
@@ -17108,10 +17362,18 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="16"/>
+      <c r="C68" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>221</v>
+      </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
       <c r="I68" s="18"/>
@@ -17119,10 +17381,16 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="20"/>
@@ -17130,78 +17398,108 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="C70" s="16" t="s">
+        <v>224</v>
+      </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="16"/>
+      <c r="F70" s="16" t="s">
+        <v>221</v>
+      </c>
       <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
+      <c r="H70" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="I70" s="18"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>796</v>
+      </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="G71" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="H71" s="5"/>
       <c r="I71" s="20"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="C72" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
+      <c r="H72" s="16" t="s">
+        <v>231</v>
+      </c>
       <c r="I72" s="18"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>798</v>
+      </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="H73" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="I73" s="20"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="C74" s="16" t="s">
+        <v>799</v>
+      </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
+      <c r="H74" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>800</v>
+      </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="C76" s="16" t="s">
+        <v>801</v>
+      </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+      <c r="H76" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="I76" s="18"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -17321,36 +17619,1673 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F659E60B-6E74-3848-8560-6FFBFA7956F9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DEB0CF-5D01-4C47-8AA4-0677D178C275}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A6B5E3-1967-EF4F-9317-DF3535C992B6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34">
+        <v>45140</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>828</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="H72" s="16"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H74" s="16"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H76" s="16"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H78" s="16"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H79" s="16"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="H80" s="47"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22443,8 +24378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2427E211-20C4-C743-959B-2F243754C0C8}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24070,7 +26005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA4E2AA-6E94-0F42-A681-FAFB2C830D6A}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="162" workbookViewId="0">
+    <sheetView zoomScale="162" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
@@ -25619,7 +27554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A4281A-6B16-8441-9BC2-3CF8DB851905}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
@@ -29069,8 +31004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54C3E0A-1824-6D47-BB35-9A9423D740F9}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71:H72"/>
+    <sheetView topLeftCell="A31" zoomScale="119" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Glacial_succession_survey/Plant_survey_DATA.xlsx
+++ b/Glacial_succession_survey/Plant_survey_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciaranorton/Documents/GitHub/Garibaldi/Glacial_succession_survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB7432-278C-014A-8709-FE00762C326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ECCF1E-682B-4A41-BABF-13840592BDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
+    <workbookView xWindow="18320" yWindow="0" windowWidth="10480" windowHeight="18000" activeTab="1" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6127" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6164" uniqueCount="839">
   <si>
     <t>Date:</t>
   </si>
@@ -645,21 +645,12 @@
     <t>10m</t>
   </si>
   <si>
-    <t>lewis monkey</t>
-  </si>
-  <si>
-    <t>Juncus spp.1</t>
-  </si>
-  <si>
     <t>1m</t>
   </si>
   <si>
     <t>Senecio</t>
   </si>
   <si>
-    <t>frementii</t>
-  </si>
-  <si>
     <t>11m</t>
   </si>
   <si>
@@ -768,15 +759,9 @@
     <t>Weigeron Nirvalis</t>
   </si>
   <si>
-    <t>Wooly Hawksweed</t>
-  </si>
-  <si>
     <t>Dwarf Epilobium</t>
   </si>
   <si>
-    <t>Senecio Fremonti</t>
-  </si>
-  <si>
     <t>Yarrow</t>
   </si>
   <si>
@@ -801,18 +786,12 @@
     <t>WP58c</t>
   </si>
   <si>
-    <t>Aster spp. 3</t>
-  </si>
-  <si>
     <t>Carex spp. 2</t>
   </si>
   <si>
     <t>Fireweed</t>
   </si>
   <si>
-    <t>Whote Hawksweed</t>
-  </si>
-  <si>
     <t>Solidago Spp 1</t>
   </si>
   <si>
@@ -841,9 +820,6 @@
   </si>
   <si>
     <t>0, 0, 0, 2</t>
-  </si>
-  <si>
-    <t>Dwarf Hawksweed</t>
   </si>
   <si>
     <t>0, 5, 0, 0</t>
@@ -2554,6 +2530,57 @@
   </si>
   <si>
     <t>CE CN</t>
+  </si>
+  <si>
+    <t>Lewis' monkey flower</t>
+  </si>
+  <si>
+    <t>Erythrane</t>
+  </si>
+  <si>
+    <t>lewisii</t>
+  </si>
+  <si>
+    <t>Dwarf mountain ragwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> margaritacea</t>
+  </si>
+  <si>
+    <t>distentfolium</t>
+  </si>
+  <si>
+    <t>Weigeron</t>
+  </si>
+  <si>
+    <t>Woolly Hawksweed</t>
+  </si>
+  <si>
+    <t>** doesn't make sense, there's already dwarf fireweed recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aster </t>
+  </si>
+  <si>
+    <t>spp. 3</t>
+  </si>
+  <si>
+    <t>angustifolium</t>
+  </si>
+  <si>
+    <t>White-flowered hawkweed</t>
+  </si>
+  <si>
+    <t>albiflorum</t>
+  </si>
+  <si>
+    <t>Dwarf hawkweed</t>
+  </si>
+  <si>
+    <t>humile</t>
+  </si>
+  <si>
+    <t>Beardtongues</t>
   </si>
 </sst>
 </file>
@@ -3246,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA28B8B9-E408-8845-AE18-B043797AE094}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A55" zoomScale="133" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3501,7 +3528,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="18"/>
@@ -3566,7 +3593,7 @@
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="26"/>
@@ -3652,7 +3679,7 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20"/>
@@ -3738,7 +3765,7 @@
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H25" s="28"/>
       <c r="I25" s="30"/>
@@ -3866,7 +3893,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
@@ -4246,7 +4273,7 @@
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="20"/>
@@ -4290,7 +4317,7 @@
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="20"/>
@@ -4313,7 +4340,7 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -4356,10 +4383,10 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="18"/>
@@ -4424,7 +4451,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="20"/>
@@ -4468,7 +4495,7 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
@@ -4534,10 +4561,14 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
+        <v>822</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>824</v>
+      </c>
       <c r="F63" s="5" t="s">
         <v>196</v>
       </c>
@@ -4548,13 +4579,15 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>289</v>
+      </c>
       <c r="F64" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -4562,42 +4595,46 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>825</v>
+      </c>
       <c r="D65" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>201</v>
+        <v>783</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="E66" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="18"/>
@@ -4606,64 +4643,67 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="20"/>
     </row>
     <row r="68" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="51"/>
-      <c r="B68" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="51"/>
+      <c r="B68" s="51"/>
       <c r="D68" s="51"/>
       <c r="E68" s="52" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H68" s="51"/>
       <c r="I68" s="53"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="C69" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
+        <v>425</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E69" s="51" t="s">
+        <v>826</v>
+      </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="20"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
       <c r="E70" s="17" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="18"/>
@@ -4672,13 +4712,17 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+        <v>424</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="20"/>
@@ -4688,14 +4732,14 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="18"/>
@@ -4704,12 +4748,17 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D73" s="19"/>
+        <v>423</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="E73" t="s">
+        <v>827</v>
+      </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="20"/>
@@ -4896,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -4941,10 +4990,10 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="36"/>
@@ -4958,10 +5007,10 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="36"/>
@@ -5009,10 +5058,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
@@ -5037,7 +5086,7 @@
         <v>196</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
@@ -5122,10 +5171,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="18"/>
@@ -5168,7 +5217,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -5254,7 +5303,7 @@
         <v>53</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -5280,7 +5329,7 @@
         <v>196</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20"/>
@@ -5387,7 +5436,7 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
@@ -5430,7 +5479,7 @@
         <v>76</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -5475,7 +5524,7 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="20"/>
@@ -5520,7 +5569,7 @@
         <v>87</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -5565,7 +5614,7 @@
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
@@ -5588,7 +5637,7 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="18"/>
@@ -5611,7 +5660,7 @@
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="20"/>
@@ -5634,7 +5683,7 @@
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="18"/>
@@ -5698,10 +5747,10 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="20"/>
@@ -5786,7 +5835,7 @@
         <v>128</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -5831,7 +5880,7 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="18"/>
@@ -5856,7 +5905,7 @@
         <v>196</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
@@ -5899,7 +5948,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -5922,10 +5971,10 @@
         <v>145</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18"/>
@@ -5947,10 +5996,10 @@
         <v>148</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="20"/>
@@ -5972,10 +6021,10 @@
         <v>152</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -6020,10 +6069,10 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="18"/>
@@ -6129,10 +6178,10 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
@@ -6155,7 +6204,7 @@
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="18"/>
@@ -6174,7 +6223,7 @@
       <c r="E61" s="19"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="20"/>
@@ -6192,10 +6241,10 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
@@ -6207,10 +6256,10 @@
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="20"/>
@@ -6222,7 +6271,7 @@
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -6233,13 +6282,13 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="19" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -6250,16 +6299,16 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="18"/>
@@ -6269,16 +6318,16 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="20"/>
@@ -6291,7 +6340,7 @@
         <v>93</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>196</v>
@@ -6305,10 +6354,10 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>196</v>
@@ -6322,10 +6371,10 @@
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F70" s="16" t="s">
         <v>196</v>
@@ -6339,13 +6388,13 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="19" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -6356,13 +6405,13 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
@@ -6376,10 +6425,10 @@
         <v>132</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -6390,13 +6439,13 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
@@ -6407,13 +6456,13 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="19" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -6424,13 +6473,13 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
@@ -6441,13 +6490,13 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="19" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -6458,13 +6507,13 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="19" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -6475,13 +6524,13 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="19" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="16"/>
@@ -6492,13 +6541,13 @@
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="47"/>
@@ -6509,13 +6558,13 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="19" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -6526,13 +6575,13 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
@@ -6543,13 +6592,13 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="19" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -6560,13 +6609,13 @@
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="17" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
@@ -6577,13 +6626,13 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="19" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -6594,13 +6643,13 @@
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="17" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
@@ -6611,13 +6660,13 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="19" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -6628,13 +6677,13 @@
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="17" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
@@ -6648,10 +6697,10 @@
         <v>93</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
@@ -6662,13 +6711,13 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="19" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E90" s="59" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -6679,13 +6728,13 @@
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
@@ -6695,14 +6744,14 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -6712,14 +6761,14 @@
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="16" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
@@ -6730,13 +6779,13 @@
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="19" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -6747,13 +6796,13 @@
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="17" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
@@ -6764,13 +6813,13 @@
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="19" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -6784,10 +6833,10 @@
         <v>125</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
@@ -6798,13 +6847,13 @@
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="19" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
@@ -6815,11 +6864,11 @@
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="17" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
@@ -6830,13 +6879,13 @@
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="19" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -6847,13 +6896,13 @@
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="17" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
@@ -6867,10 +6916,10 @@
         <v>176</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -6881,13 +6930,13 @@
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="17" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
@@ -7042,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -7087,7 +7136,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="45"/>
@@ -7102,7 +7151,7 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="45"/>
@@ -7116,7 +7165,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="35"/>
       <c r="E7" s="43" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="45"/>
@@ -7153,7 +7202,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -7176,7 +7225,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -7262,7 +7311,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -7411,7 +7460,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -7728,7 +7777,7 @@
         <v>102</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -7879,7 +7928,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -7944,7 +7993,7 @@
         <v>133</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -7967,7 +8016,7 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -7990,7 +8039,7 @@
         <v>140</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
@@ -8013,7 +8062,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -8036,7 +8085,7 @@
         <v>145</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -8080,7 +8129,7 @@
         <v>152</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -8124,7 +8173,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -8210,7 +8259,7 @@
         <v>173</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -8233,7 +8282,7 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -8298,12 +8347,12 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="16" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -8316,11 +8365,11 @@
         <v>93</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -8330,14 +8379,14 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="16" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -8347,14 +8396,14 @@
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="16" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -8365,10 +8414,10 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F67" s="5">
         <v>1</v>
@@ -8381,14 +8430,14 @@
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -8398,14 +8447,14 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="16" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -8420,7 +8469,7 @@
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
@@ -8430,12 +8479,12 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -8445,12 +8494,12 @@
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
@@ -8460,12 +8509,12 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -8476,13 +8525,13 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
@@ -8492,12 +8541,12 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -8508,13 +8557,13 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
@@ -8525,11 +8574,11 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="19" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="5" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -8540,11 +8589,11 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="17" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="16" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -8555,11 +8604,11 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="19" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="5" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="16"/>
@@ -8681,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -8726,10 +8775,10 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="36"/>
@@ -8743,10 +8792,10 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="36"/>
@@ -8794,10 +8843,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
@@ -8819,7 +8868,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -9163,7 +9212,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -9249,7 +9298,7 @@
         <v>82</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -9461,7 +9510,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -9526,7 +9575,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -9591,7 +9640,7 @@
         <v>133</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -9656,7 +9705,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -9679,7 +9728,7 @@
         <v>145</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -9702,7 +9751,7 @@
         <v>148</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -9725,7 +9774,7 @@
         <v>152</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -9769,7 +9818,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -9834,7 +9883,7 @@
         <v>170</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -9878,10 +9927,10 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
@@ -9945,12 +9994,12 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -9960,12 +10009,12 @@
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="16" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -9975,13 +10024,13 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="D65" s="19" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -9991,16 +10040,16 @@
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D66" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -10011,13 +10060,13 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -10025,35 +10074,35 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -10061,16 +10110,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
@@ -10080,12 +10129,12 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="16" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -10096,13 +10145,13 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
@@ -10112,12 +10161,12 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="16" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -10127,12 +10176,12 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
@@ -10146,10 +10195,10 @@
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -10159,16 +10208,16 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
@@ -10178,12 +10227,12 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -10193,14 +10242,14 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -10210,12 +10259,12 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="16"/>
@@ -10225,12 +10274,12 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="47"/>
@@ -10245,7 +10294,7 @@
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -10255,12 +10304,12 @@
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
@@ -10270,12 +10319,12 @@
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -10285,47 +10334,47 @@
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H84" s="16"/>
       <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="H86" s="16"/>
       <c r="I86" s="18"/>
@@ -10334,13 +10383,13 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="20"/>
@@ -10461,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -10574,10 +10623,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
@@ -10599,10 +10648,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
@@ -10688,7 +10737,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="18"/>
@@ -10837,7 +10886,7 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20"/>
@@ -10943,10 +10992,10 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
@@ -10989,7 +11038,7 @@
         <v>76</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -11012,7 +11061,7 @@
         <v>79</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -11056,10 +11105,10 @@
         <v>84</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
@@ -11123,10 +11172,10 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
@@ -11190,7 +11239,7 @@
         <v>104</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -11234,10 +11283,10 @@
         <v>109</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="18"/>
@@ -11322,10 +11371,10 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="26"/>
@@ -11390,7 +11439,7 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="18"/>
@@ -11412,10 +11461,10 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
@@ -11544,7 +11593,7 @@
         <v>156</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -11567,7 +11616,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -11674,10 +11723,10 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
@@ -11699,10 +11748,10 @@
         <v>181</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="18"/>
@@ -11737,10 +11786,10 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
@@ -11750,13 +11799,13 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -11767,13 +11816,13 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -11784,14 +11833,14 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="19" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="20"/>
@@ -11801,10 +11850,10 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16" t="s">
@@ -11818,14 +11867,14 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="20"/>
@@ -11835,10 +11884,10 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16" t="s">
@@ -11849,11 +11898,11 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -12090,7 +12139,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -12177,16 +12226,16 @@
       <c r="D7" s="35"/>
       <c r="E7" s="43"/>
       <c r="F7" s="44" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -12219,16 +12268,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -12248,16 +12297,16 @@
         <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -12320,7 +12369,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="20"/>
@@ -12342,16 +12391,16 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -12413,14 +12462,14 @@
         <v>42</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -12442,7 +12491,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I18" s="18"/>
     </row>
@@ -12464,7 +12513,7 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="20"/>
@@ -12486,11 +12535,11 @@
         <v>53</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I20" s="18"/>
     </row>
@@ -12511,16 +12560,16 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>693</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -12603,14 +12652,14 @@
         <v>68</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -12631,13 +12680,13 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="H26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="20" t="s">
         <v>218</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -12683,7 +12732,7 @@
         <v>196</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -12725,13 +12774,13 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -12751,16 +12800,16 @@
         <v>84</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -12781,13 +12830,13 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -12873,7 +12922,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="20" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -12956,11 +13005,11 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I40" s="20"/>
     </row>
@@ -13044,14 +13093,14 @@
         <v>128</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -13071,7 +13120,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
@@ -13114,17 +13163,17 @@
         <v>136</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -13147,7 +13196,7 @@
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="18" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -13167,16 +13216,16 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -13197,7 +13246,7 @@
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18"/>
@@ -13219,11 +13268,11 @@
         <v>148</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="I51" s="20"/>
     </row>
@@ -13246,10 +13295,10 @@
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -13395,14 +13444,14 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -13425,7 +13474,7 @@
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -13458,37 +13507,37 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="5" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -13496,16 +13545,16 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="18"/>
@@ -13515,17 +13564,17 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="19" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I65" s="20"/>
     </row>
@@ -13537,17 +13586,17 @@
         <v>97</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -13555,16 +13604,16 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="20"/>
@@ -13577,10 +13626,10 @@
         <v>93</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -13591,18 +13640,18 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -13613,19 +13662,19 @@
         <v>93</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -13636,17 +13685,17 @@
         <v>97</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -13654,20 +13703,20 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16" t="s">
         <v>196</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -13678,11 +13727,11 @@
         <v>86</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="20"/>
@@ -13692,14 +13741,14 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="E74" s="17" t="s">
         <v>710</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>718</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="18"/>
@@ -13712,11 +13761,11 @@
         <v>93</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="20"/>
@@ -13727,14 +13776,14 @@
       <c r="C76" s="16"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I76" s="18"/>
     </row>
@@ -13743,14 +13792,14 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="17" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="20"/>
@@ -13760,14 +13809,14 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="19" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H78" s="16"/>
       <c r="I78" s="18"/>
@@ -13777,14 +13826,14 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="17" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="20"/>
@@ -13797,11 +13846,11 @@
         <v>117</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="18"/>
@@ -13811,14 +13860,14 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="17" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="20"/>
@@ -13827,7 +13876,7 @@
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>86</v>
@@ -13835,7 +13884,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="18"/>
@@ -13848,11 +13897,11 @@
         <v>132</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="20"/>
@@ -13865,12 +13914,12 @@
         <v>176</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I84" s="18"/>
     </row>
@@ -13879,15 +13928,15 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="19" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I85" s="20"/>
     </row>
@@ -13899,12 +13948,12 @@
         <v>52</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="5" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="I86" s="18"/>
     </row>
@@ -13913,15 +13962,15 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="62" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I87" s="20"/>
     </row>
@@ -13930,15 +13979,15 @@
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="17" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I88" s="18"/>
     </row>
@@ -13947,16 +13996,16 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="19" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -14160,16 +14209,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -14189,10 +14238,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
@@ -14277,13 +14326,13 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="I14" s="18"/>
     </row>
@@ -14367,7 +14416,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -14392,7 +14441,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I19" s="20"/>
     </row>
@@ -14434,14 +14483,14 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -14503,11 +14552,11 @@
         <v>63</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I24" s="20"/>
     </row>
@@ -14528,7 +14577,7 @@
         <v>68</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -14551,10 +14600,10 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
@@ -14640,11 +14689,11 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="20" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -14665,7 +14714,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
@@ -14729,16 +14778,16 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>196</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -14758,10 +14807,10 @@
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="18"/>
@@ -14786,7 +14835,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="20" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -14806,7 +14855,7 @@
         <v>104</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -14871,10 +14920,10 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="20"/>
@@ -14917,7 +14966,7 @@
         <v>121</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
@@ -14962,7 +15011,7 @@
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="18"/>
@@ -15028,10 +15077,10 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -15093,14 +15142,14 @@
         <v>145</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -15143,10 +15192,10 @@
         <v>152</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -15189,14 +15238,14 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -15259,7 +15308,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>196</v>
@@ -15304,14 +15353,14 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -15331,12 +15380,12 @@
         <v>181</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -15355,7 +15404,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="20" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -15371,34 +15420,34 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -15407,24 +15456,24 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="18" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -15432,20 +15481,20 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="19" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -15453,18 +15502,18 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="16" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="18" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -15472,18 +15521,18 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="5" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="20" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -15494,34 +15543,34 @@
         <v>132</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H68" s="16" t="s">
         <v>196</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="5" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="20"/>
@@ -15530,35 +15579,35 @@
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="18" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I71" s="20"/>
     </row>
@@ -15567,20 +15616,20 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -15588,13 +15637,13 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="19" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -15605,34 +15654,34 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I75" s="20"/>
     </row>
@@ -15641,12 +15690,12 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="18"/>
@@ -15659,22 +15708,22 @@
         <v>97</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
@@ -15682,20 +15731,20 @@
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="20"/>
@@ -15704,13 +15753,13 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="18"/>
@@ -15727,7 +15776,7 @@
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="20"/>
@@ -15736,13 +15785,13 @@
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="18"/>
@@ -15752,12 +15801,12 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="19" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="20"/>
@@ -15767,10 +15816,10 @@
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="17" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16" t="s">
@@ -15784,14 +15833,14 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="19" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
@@ -15800,14 +15849,14 @@
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="I86" s="18"/>
     </row>
@@ -15815,14 +15864,14 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I87" s="20"/>
     </row>
@@ -15830,14 +15879,14 @@
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I88" s="18"/>
     </row>
@@ -15845,14 +15894,14 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I89" s="20"/>
     </row>
@@ -15860,31 +15909,31 @@
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="I91" s="20"/>
     </row>
@@ -15893,14 +15942,14 @@
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="18" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -15909,7 +15958,7 @@
       <c r="C93" s="16"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -15920,17 +15969,17 @@
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="47" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -15994,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -16111,13 +16160,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="I9" s="15"/>
     </row>
@@ -16139,10 +16188,10 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="I10" s="18"/>
     </row>
@@ -16206,7 +16255,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="20"/>
@@ -16228,7 +16277,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -16295,7 +16344,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I17" s="26"/>
     </row>
@@ -16358,7 +16407,7 @@
         <v>53</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -16382,10 +16431,10 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="I21" s="20"/>
     </row>
@@ -16493,7 +16542,7 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
@@ -16579,10 +16628,10 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I30" s="20"/>
     </row>
@@ -16604,10 +16653,10 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I31" s="18"/>
     </row>
@@ -16629,7 +16678,7 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="20"/>
@@ -16693,11 +16742,11 @@
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I35" s="18"/>
     </row>
@@ -16781,7 +16830,7 @@
         <v>109</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -16952,10 +17001,10 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I47" s="20"/>
     </row>
@@ -17081,7 +17130,7 @@
         <v>156</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -17104,7 +17153,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -17211,13 +17260,13 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I59" s="20"/>
     </row>
@@ -17272,7 +17321,7 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -17282,12 +17331,12 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="5" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -17297,12 +17346,12 @@
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -17312,12 +17361,12 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="5" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -17327,12 +17376,12 @@
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -17341,16 +17390,16 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>196</v>
@@ -17363,16 +17412,16 @@
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -17382,7 +17431,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>97</v>
@@ -17399,16 +17448,16 @@
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="I70" s="18"/>
     </row>
@@ -17416,13 +17465,13 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="20"/>
@@ -17431,14 +17480,14 @@
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I72" s="18"/>
     </row>
@@ -17446,14 +17495,14 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I73" s="20"/>
     </row>
@@ -17461,14 +17510,14 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="I74" s="18"/>
     </row>
@@ -17476,14 +17525,14 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="I75" s="20"/>
     </row>
@@ -17491,14 +17540,14 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I76" s="18"/>
     </row>
@@ -17651,7 +17700,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -17756,10 +17805,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
@@ -17865,10 +17914,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="18"/>
@@ -17933,7 +17982,7 @@
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="26"/>
@@ -18021,7 +18070,7 @@
         <v>196</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20"/>
@@ -18107,7 +18156,7 @@
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H25" s="28"/>
       <c r="I25" s="30"/>
@@ -18151,7 +18200,7 @@
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="18"/>
@@ -18215,7 +18264,7 @@
         <v>82</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -18239,7 +18288,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
@@ -18303,10 +18352,10 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
@@ -18497,7 +18546,7 @@
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="26"/>
@@ -18562,7 +18611,7 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="18"/>
@@ -18584,10 +18633,10 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
@@ -18610,7 +18659,7 @@
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="18"/>
@@ -18632,10 +18681,10 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="20"/>
@@ -18658,7 +18707,7 @@
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18"/>
@@ -18681,7 +18730,7 @@
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="20"/>
@@ -18704,7 +18753,7 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -18810,10 +18859,10 @@
         <v>170</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="20"/>
@@ -18857,7 +18906,7 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
@@ -18925,10 +18974,10 @@
         <v>97</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -18939,13 +18988,13 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -18956,14 +19005,14 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="19" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="5" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="20"/>
@@ -18973,13 +19022,13 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -18993,10 +19042,10 @@
         <v>93</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -19007,13 +19056,13 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -19024,13 +19073,13 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -19041,11 +19090,11 @@
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
@@ -19061,7 +19110,7 @@
       <c r="E71" s="19"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="20"/>
@@ -19076,7 +19125,7 @@
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="18"/>
@@ -19086,12 +19135,12 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="20"/>
@@ -19106,7 +19155,7 @@
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="18"/>
@@ -19115,13 +19164,13 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="20"/>
@@ -19130,13 +19179,13 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="18"/>
@@ -19145,13 +19194,13 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="20"/>
@@ -19160,13 +19209,13 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H78" s="16"/>
       <c r="I78" s="18"/>
@@ -19175,13 +19224,13 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="20"/>
@@ -19190,13 +19239,13 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="18"/>
@@ -19213,7 +19262,7 @@
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="20"/>
@@ -19223,14 +19272,14 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="18"/>
@@ -19240,13 +19289,13 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="19" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -19294,13 +19343,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA790F42-9F4F-D347-80FD-304DEBC825F4}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="126" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19322,7 +19372,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -19367,7 +19417,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="45"/>
@@ -19382,7 +19432,7 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="45"/>
@@ -19431,16 +19481,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -19544,7 +19594,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -19695,7 +19745,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -19718,7 +19768,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -19783,7 +19833,7 @@
         <v>68</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -19806,7 +19856,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -19850,7 +19900,7 @@
         <v>76</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -19894,7 +19944,7 @@
         <v>82</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -19917,7 +19967,7 @@
         <v>84</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -20024,7 +20074,7 @@
         <v>102</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -20110,7 +20160,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -20259,7 +20309,7 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -20303,7 +20353,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -20347,7 +20397,7 @@
         <v>148</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -20370,7 +20420,7 @@
         <v>152</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -20414,7 +20464,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -20523,7 +20573,7 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -20546,7 +20596,7 @@
         <v>181</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -20590,12 +20640,16 @@
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="D63" s="56"/>
-      <c r="E63" s="55"/>
+        <v>221</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>826</v>
+      </c>
       <c r="F63" s="55" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G63" s="55"/>
       <c r="H63" s="55"/>
@@ -20605,12 +20659,16 @@
       <c r="A64" s="51"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
+        <v>234</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>283</v>
+      </c>
       <c r="F64" s="51" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
@@ -20620,12 +20678,16 @@
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
+        <v>829</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="E65" s="56" t="s">
+        <v>756</v>
+      </c>
       <c r="F65" s="55" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
@@ -20635,27 +20697,37 @@
       <c r="A66" s="51"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="G66" s="51"/>
+      <c r="G66" s="51" t="s">
+        <v>830</v>
+      </c>
       <c r="H66" s="51"/>
       <c r="I66" s="53"/>
     </row>
     <row r="67" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="D67" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" s="56" t="s">
+        <v>783</v>
+      </c>
+      <c r="F67" s="55" t="s">
         <v>240</v>
-      </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="55" t="s">
-        <v>245</v>
       </c>
       <c r="G67" s="55"/>
       <c r="H67" s="55"/>
@@ -20663,14 +20735,20 @@
     </row>
     <row r="68" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
+      <c r="B68" s="51" t="s">
+        <v>123</v>
+      </c>
       <c r="C68" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
+        <v>236</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>624</v>
+      </c>
+      <c r="E68" s="52" t="s">
+        <v>624</v>
+      </c>
       <c r="F68" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
@@ -20680,12 +20758,14 @@
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55" t="s">
-        <v>249</v>
+        <v>831</v>
       </c>
       <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
+      <c r="E69" s="56" t="s">
+        <v>832</v>
+      </c>
       <c r="F69" s="55" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G69" s="55"/>
       <c r="H69" s="55"/>
@@ -20695,12 +20775,12 @@
       <c r="A70" s="51"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="52"/>
       <c r="F70" s="51" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
@@ -20710,12 +20790,12 @@
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
       <c r="F71" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G71" s="55"/>
       <c r="H71" s="55"/>
@@ -20725,12 +20805,16 @@
       <c r="A72" s="51"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
+        <v>245</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>833</v>
+      </c>
       <c r="F72" s="51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
@@ -20740,12 +20824,16 @@
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
+        <v>834</v>
+      </c>
+      <c r="D73" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>835</v>
+      </c>
       <c r="F73" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G73" s="55"/>
       <c r="H73" s="55"/>
@@ -20755,12 +20843,16 @@
       <c r="A74" s="51"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
+        <v>836</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="E74" s="52" t="s">
+        <v>837</v>
+      </c>
       <c r="F74" s="51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
@@ -20770,12 +20862,16 @@
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55" t="s">
+        <v>838</v>
+      </c>
+      <c r="D75" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
+      <c r="E75" s="56" t="s">
+        <v>624</v>
+      </c>
       <c r="F75" s="55" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G75" s="55"/>
       <c r="H75" s="55"/>
@@ -20784,13 +20880,15 @@
     <row r="76" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="51"/>
       <c r="B76" s="51"/>
-      <c r="C76" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" s="52" t="s">
+        <v>289</v>
+      </c>
       <c r="F76" s="51" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
@@ -20799,13 +20897,14 @@
     <row r="77" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
-      <c r="C77" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
+      <c r="D77" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="56" t="s">
+        <v>289</v>
+      </c>
       <c r="F77" s="55" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G77" s="55"/>
       <c r="H77" s="55"/>
@@ -20814,13 +20913,15 @@
     <row r="78" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="51"/>
       <c r="B78" s="51"/>
-      <c r="C78" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="D78" s="52"/>
-      <c r="E78" s="52"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E78" s="52" t="s">
+        <v>290</v>
+      </c>
       <c r="F78" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
@@ -20830,12 +20931,12 @@
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D79" s="56"/>
       <c r="E79" s="56"/>
       <c r="F79" s="55" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G79" s="55"/>
       <c r="H79" s="55"/>
@@ -20845,12 +20946,12 @@
       <c r="A80" s="51"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D80" s="52"/>
       <c r="E80" s="52"/>
       <c r="F80" s="51" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
@@ -20860,12 +20961,12 @@
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D81" s="56"/>
       <c r="E81" s="56"/>
       <c r="F81" s="55" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G81" s="55"/>
       <c r="H81" s="55"/>
@@ -20875,12 +20976,12 @@
       <c r="A82" s="51"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D82" s="52"/>
       <c r="E82" s="52"/>
       <c r="F82" s="51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
@@ -20945,7 +21046,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -20989,10 +21090,10 @@
       <c r="D5" s="35"/>
       <c r="E5" s="46"/>
       <c r="F5" s="46" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="36"/>
@@ -21006,10 +21107,10 @@
       <c r="D6" s="35"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="36"/>
@@ -21057,13 +21158,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>14</v>
@@ -21086,13 +21187,13 @@
         <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I10" s="18"/>
     </row>
@@ -21156,7 +21257,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="20"/>
@@ -21178,11 +21279,11 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I14" s="18"/>
     </row>
@@ -21245,13 +21346,13 @@
         <v>42</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I17" s="26"/>
     </row>
@@ -21335,13 +21436,13 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I21" s="20"/>
     </row>
@@ -21363,10 +21464,10 @@
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I22" s="18"/>
     </row>
@@ -21450,13 +21551,13 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I26" s="20"/>
     </row>
@@ -21499,10 +21600,10 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I28" s="20"/>
     </row>
@@ -21524,7 +21625,7 @@
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="18"/>
@@ -21546,13 +21647,13 @@
         <v>82</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I30" s="20"/>
     </row>
@@ -21636,10 +21737,10 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
@@ -21703,10 +21804,10 @@
         <v>104</v>
       </c>
       <c r="F37" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>283</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="18"/>
@@ -21750,7 +21851,7 @@
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="18"/>
@@ -21772,7 +21873,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -21817,7 +21918,7 @@
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H42" s="31"/>
       <c r="I42" s="33"/>
@@ -21840,7 +21941,7 @@
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="26"/>
@@ -21862,10 +21963,10 @@
         <v>128</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="18"/>
@@ -21887,7 +21988,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -21910,7 +22011,7 @@
         <v>133</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -21933,13 +22034,13 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I47" s="20"/>
     </row>
@@ -21982,7 +22083,7 @@
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>196</v>
@@ -22007,7 +22108,7 @@
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18"/>
@@ -22029,10 +22130,10 @@
         <v>148</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="20"/>
@@ -22056,7 +22157,7 @@
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I52" s="18"/>
     </row>
@@ -22099,10 +22200,10 @@
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I54" s="18"/>
     </row>
@@ -22165,7 +22266,7 @@
         <v>170</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -22209,13 +22310,13 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I59" s="20"/>
     </row>
@@ -22253,10 +22354,10 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="20"/>
@@ -22276,7 +22377,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I62" s="18"/>
     </row>
@@ -22287,11 +22388,11 @@
         <v>93</v>
       </c>
       <c r="D63" s="56" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E63" s="56"/>
       <c r="F63" s="55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G63" s="55"/>
       <c r="H63" s="55"/>
@@ -22301,18 +22402,18 @@
       <c r="A64" s="51"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D64" s="52"/>
       <c r="E64" s="52"/>
       <c r="F64" s="51" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G64" s="51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H64" s="51" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I64" s="53"/>
     </row>
@@ -22321,16 +22422,16 @@
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
       <c r="D65" s="56" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E65" s="56" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F65" s="55" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G65" s="55" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H65" s="55"/>
       <c r="I65" s="57"/>
@@ -22339,12 +22440,12 @@
       <c r="A66" s="51"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D66" s="52"/>
       <c r="E66" s="52"/>
       <c r="F66" s="51" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G66" s="51"/>
       <c r="H66" s="51"/>
@@ -22355,11 +22456,11 @@
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
       <c r="D67" s="56" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E67" s="56"/>
       <c r="F67" s="55" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G67" s="55"/>
       <c r="H67" s="55"/>
@@ -22370,13 +22471,13 @@
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E68" s="52" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F68" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
@@ -22387,13 +22488,13 @@
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
       <c r="D69" s="56" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E69" s="56" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G69" s="55"/>
       <c r="H69" s="55"/>
@@ -22403,13 +22504,13 @@
       <c r="A70" s="51"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="52"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H70" s="51"/>
       <c r="I70" s="53"/>
@@ -22418,13 +22519,13 @@
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
       <c r="F71" s="55"/>
       <c r="G71" s="55" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H71" s="55"/>
       <c r="I71" s="57"/>
@@ -22433,13 +22534,13 @@
       <c r="A72" s="51"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D72" s="52"/>
       <c r="E72" s="52"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H72" s="51"/>
       <c r="I72" s="53"/>
@@ -22448,13 +22549,13 @@
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
       <c r="F73" s="55"/>
       <c r="G73" s="55" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H73" s="55"/>
       <c r="I73" s="57"/>
@@ -22463,7 +22564,7 @@
       <c r="A74" s="51"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D74" s="52"/>
       <c r="E74" s="52"/>
@@ -22476,13 +22577,13 @@
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D75" s="56"/>
       <c r="E75" s="56"/>
       <c r="F75" s="55"/>
       <c r="G75" s="55" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H75" s="55"/>
       <c r="I75" s="57"/>
@@ -22491,7 +22592,7 @@
       <c r="A76" s="51"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D76" s="52"/>
       <c r="E76" s="52"/>
@@ -22677,7 +22778,7 @@
       <c r="D4" s="35"/>
       <c r="E4" s="43"/>
       <c r="F4" s="44" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
@@ -22692,7 +22793,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="45">
@@ -22711,7 +22812,7 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="45">
@@ -22762,16 +22863,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -22791,10 +22892,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
@@ -22879,10 +22980,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>196</v>
@@ -23032,16 +23133,16 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -23082,7 +23183,7 @@
         <v>59</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -23147,16 +23248,16 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -23220,10 +23321,10 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -23243,14 +23344,14 @@
         <v>82</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -23270,10 +23371,10 @@
         <v>84</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
@@ -23340,7 +23441,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="26" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -23361,10 +23462,10 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I35" s="18"/>
     </row>
@@ -23387,7 +23488,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I36" s="20"/>
     </row>
@@ -23472,7 +23573,7 @@
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="20"/>
@@ -23536,10 +23637,10 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="26"/>
@@ -23582,7 +23683,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -23606,7 +23707,7 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="18"/>
@@ -23628,10 +23729,10 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
@@ -23654,7 +23755,7 @@
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="18"/>
@@ -23676,7 +23777,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>196</v>
@@ -23744,7 +23845,7 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -23769,7 +23870,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -23790,7 +23891,7 @@
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="18"/>
@@ -23855,7 +23956,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="20"/>
@@ -23898,11 +23999,11 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I59" s="20"/>
     </row>
@@ -23925,10 +24026,10 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -23961,41 +24062,41 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -24006,16 +24107,16 @@
         <v>52</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I64" s="18"/>
     </row>
@@ -24027,16 +24128,16 @@
         <v>93</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I65" s="20"/>
     </row>
@@ -24048,19 +24149,19 @@
         <v>136</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F66" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G66" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="G66" s="16" t="s">
-        <v>340</v>
-      </c>
       <c r="H66" s="16" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -24068,13 +24169,13 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -24091,7 +24192,7 @@
         <v>49</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -24102,16 +24203,16 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -24123,15 +24224,15 @@
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I70" s="18"/>
     </row>
@@ -24140,15 +24241,15 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="19" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I71" s="20"/>
     </row>
@@ -24157,13 +24258,13 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I72" s="18"/>
     </row>
@@ -24175,12 +24276,12 @@
         <v>93</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I73" s="20"/>
     </row>
@@ -24192,12 +24293,12 @@
         <v>93</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="I74" s="18"/>
     </row>
@@ -24206,13 +24307,13 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="19" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I75" s="20"/>
     </row>
@@ -24221,13 +24322,13 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I76" s="18"/>
     </row>
@@ -24236,15 +24337,15 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="19" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I77" s="20"/>
     </row>
@@ -24253,15 +24354,15 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="17" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I78" s="18"/>
     </row>
@@ -24270,13 +24371,13 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="19" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I79" s="20"/>
     </row>
@@ -24285,15 +24386,15 @@
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I80" s="18"/>
     </row>
@@ -24308,10 +24409,10 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -24406,7 +24507,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -24511,10 +24612,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>13</v>
@@ -24771,7 +24872,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -25046,7 +25147,7 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
@@ -25069,7 +25170,7 @@
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -25092,7 +25193,7 @@
         <v>102</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -25178,7 +25279,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -25243,7 +25344,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -25308,7 +25409,7 @@
         <v>133</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -25373,7 +25474,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -25396,7 +25497,7 @@
         <v>145</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -25484,7 +25585,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -25549,7 +25650,7 @@
         <v>170</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -25593,7 +25694,7 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -25633,7 +25734,7 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -25652,7 +25753,7 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -25662,12 +25763,12 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -25676,15 +25777,15 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -25694,12 +25795,12 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="16" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -25710,11 +25811,11 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -25725,11 +25826,11 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="16" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -25739,12 +25840,12 @@
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -25754,12 +25855,12 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="16" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -25769,12 +25870,12 @@
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="16" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
@@ -25784,12 +25885,12 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -25799,12 +25900,12 @@
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
@@ -25814,12 +25915,12 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -25829,12 +25930,12 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
@@ -25844,12 +25945,12 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -25859,12 +25960,12 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
@@ -25874,12 +25975,12 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -25889,12 +25990,12 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -25904,12 +26005,12 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -25919,12 +26020,12 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
@@ -26065,7 +26166,7 @@
       <c r="D4" s="35"/>
       <c r="E4" s="43"/>
       <c r="F4" s="44" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
@@ -26140,10 +26241,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>13</v>
@@ -26400,7 +26501,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -26507,7 +26608,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -26572,7 +26673,7 @@
         <v>79</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -26595,7 +26696,7 @@
         <v>82</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -26681,7 +26782,7 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
@@ -26704,7 +26805,7 @@
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -26790,7 +26891,7 @@
         <v>109</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -26960,7 +27061,7 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -27235,7 +27336,7 @@
         <v>181</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -27271,7 +27372,7 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -27303,12 +27404,12 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -27569,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -27584,7 +27685,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -27599,7 +27700,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -27619,7 +27720,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="44"/>
       <c r="G4" s="49" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H4" s="45"/>
       <c r="I4" s="36"/>
@@ -27633,7 +27734,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G5" s="46">
         <v>91375</v>
@@ -27650,7 +27751,7 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G6" s="46">
         <v>97666</v>
@@ -27668,7 +27769,7 @@
       <c r="E7" s="43"/>
       <c r="F7" s="44"/>
       <c r="G7" s="49" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="36"/>
@@ -27703,10 +27804,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>13</v>
@@ -27732,7 +27833,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="16"/>
@@ -27818,7 +27919,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -28619,7 +28720,7 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -28823,7 +28924,7 @@
       <c r="E62" s="17"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
@@ -28832,12 +28933,12 @@
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D63" s="56"/>
       <c r="E63" s="56"/>
       <c r="F63" s="55" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G63" s="55"/>
       <c r="H63" s="55"/>
@@ -28847,15 +28948,15 @@
       <c r="A64" s="51"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D64" s="52"/>
       <c r="E64" s="52"/>
       <c r="F64" s="51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G64" s="51" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H64" s="51"/>
       <c r="I64" s="53"/>
@@ -28864,12 +28965,12 @@
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D65" s="56"/>
       <c r="E65" s="56"/>
       <c r="F65" s="55" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
@@ -28879,7 +28980,7 @@
       <c r="A66" s="51"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D66" s="52"/>
       <c r="E66" s="52"/>
@@ -28894,12 +28995,12 @@
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
       <c r="F67" s="55" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G67" s="55"/>
       <c r="H67" s="55"/>
@@ -28909,12 +29010,12 @@
       <c r="A68" s="51"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="52"/>
       <c r="F68" s="51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
@@ -28924,12 +29025,12 @@
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
       <c r="F69" s="55" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G69" s="55"/>
       <c r="H69" s="55"/>
@@ -28939,12 +29040,12 @@
       <c r="A70" s="51"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="52"/>
       <c r="F70" s="51" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
@@ -28954,12 +29055,12 @@
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
       <c r="F71" s="55" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G71" s="55"/>
       <c r="H71" s="55"/>
@@ -28969,15 +29070,15 @@
       <c r="A72" s="51"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D72" s="52"/>
       <c r="E72" s="52"/>
       <c r="F72" s="51" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G72" s="51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H72" s="51"/>
       <c r="I72" s="53"/>
@@ -28986,13 +29087,13 @@
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
       <c r="F73" s="55"/>
       <c r="G73" s="55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H73" s="55"/>
       <c r="I73" s="57"/>
@@ -29001,13 +29102,13 @@
       <c r="A74" s="51"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D74" s="52"/>
       <c r="E74" s="52"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H74" s="51"/>
       <c r="I74" s="53"/>
@@ -29016,13 +29117,13 @@
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D75" s="56"/>
       <c r="E75" s="56"/>
       <c r="F75" s="55"/>
       <c r="G75" s="55" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H75" s="55"/>
       <c r="I75" s="57"/>
@@ -29031,13 +29132,13 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="18"/>
@@ -29046,13 +29147,13 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="20"/>
@@ -29061,13 +29162,13 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H78" s="16"/>
       <c r="I78" s="18"/>
@@ -29076,13 +29177,13 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="20"/>
@@ -29091,13 +29192,13 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H80" s="16"/>
       <c r="I80" s="18"/>
@@ -29106,13 +29207,13 @@
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="20"/>
@@ -29121,13 +29222,13 @@
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="18"/>
@@ -29136,13 +29237,13 @@
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="20"/>
@@ -29151,13 +29252,13 @@
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H84" s="16"/>
       <c r="I84" s="18"/>
@@ -29166,7 +29267,7 @@
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>104</v>
@@ -29174,7 +29275,7 @@
       <c r="E85" s="19"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
@@ -29183,15 +29284,15 @@
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H86" s="16"/>
       <c r="I86" s="18"/>
@@ -29200,15 +29301,15 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="20"/>
@@ -29217,13 +29318,13 @@
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H88" s="16"/>
       <c r="I88" s="18"/>
@@ -29232,13 +29333,13 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="20"/>
@@ -29247,15 +29348,15 @@
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H90" s="16"/>
       <c r="I90" s="18"/>
@@ -29264,15 +29365,15 @@
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="20"/>
@@ -29493,10 +29594,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>13</v>
@@ -29523,7 +29624,7 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
@@ -29609,7 +29710,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="18"/>
@@ -29737,7 +29838,7 @@
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="18"/>
@@ -29759,10 +29860,10 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20"/>
@@ -29869,7 +29970,7 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
@@ -29955,7 +30056,7 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="20"/>
@@ -29978,7 +30079,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
@@ -30042,10 +30143,10 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
@@ -30088,7 +30189,7 @@
         <v>102</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -30111,7 +30212,7 @@
         <v>104</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -30155,7 +30256,7 @@
         <v>109</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -30325,10 +30426,10 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
@@ -30351,7 +30452,7 @@
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="18"/>
@@ -30478,7 +30579,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -30544,7 +30645,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="20"/>
@@ -30587,7 +30688,7 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -30628,7 +30729,7 @@
       <c r="E61" s="19"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="20"/>
@@ -30646,10 +30747,10 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
@@ -30658,14 +30759,14 @@
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
@@ -30675,17 +30776,17 @@
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="20"/>
@@ -30694,17 +30795,17 @@
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="18"/>
@@ -30713,14 +30814,14 @@
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="16" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -30730,16 +30831,16 @@
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
@@ -30749,14 +30850,14 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -30766,14 +30867,14 @@
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="16"/>
@@ -30783,14 +30884,14 @@
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -30800,14 +30901,14 @@
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
@@ -30817,14 +30918,14 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -30834,7 +30935,7 @@
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -30854,7 +30955,7 @@
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -30864,12 +30965,12 @@
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
@@ -30879,12 +30980,12 @@
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -30894,14 +30995,14 @@
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
@@ -31135,16 +31236,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -31165,13 +31266,13 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -31235,7 +31336,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I13" s="20"/>
     </row>
@@ -31260,10 +31361,10 @@
         <v>196</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -31306,7 +31407,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I16" s="23"/>
     </row>
@@ -31391,7 +31492,7 @@
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="18"/>
@@ -31413,12 +31514,12 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -31438,7 +31539,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -31505,7 +31606,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I25" s="30"/>
     </row>
@@ -31529,13 +31630,13 @@
         <v>196</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -31578,7 +31679,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I28" s="20"/>
     </row>
@@ -31620,16 +31721,16 @@
         <v>82</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -31671,13 +31772,13 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I32" s="20" t="s">
         <v>215</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="58" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -31694,7 +31795,7 @@
         <v>86</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
@@ -31782,11 +31883,11 @@
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="18" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -31827,7 +31928,7 @@
         <v>109</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -31955,7 +32056,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -31980,10 +32081,10 @@
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -32003,16 +32104,16 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -32035,7 +32136,7 @@
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -32077,7 +32178,7 @@
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18"/>
@@ -32121,7 +32222,7 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -32164,13 +32265,13 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I54" s="18"/>
     </row>
@@ -32234,13 +32335,13 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -32281,7 +32382,7 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -32304,7 +32405,7 @@
         <v>181</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -32340,7 +32441,7 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -32350,12 +32451,12 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -32365,12 +32466,12 @@
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="16" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -32381,13 +32482,13 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -32398,13 +32499,13 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -32415,14 +32516,14 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="20"/>
@@ -32432,18 +32533,18 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
